--- a/AEDS-III/Lista-2/Testes_de_Mesa.xlsx
+++ b/AEDS-III/Lista-2/Testes_de_Mesa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="56">
   <si>
     <t>Algoritmo</t>
   </si>
@@ -245,14 +245,20 @@
 FIM DO ORDENA;</t>
   </si>
   <si>
-    <t>S = [30, 16, 32, 29, 28, 16], N=6</t>
+    <t>vetor[j]</t>
+  </si>
+  <si>
+    <t>troca</t>
+  </si>
+  <si>
+    <t>S = [30, 16, 32, 26, 28, 16], N=6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="19">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -359,12 +365,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -410,7 +410,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -546,11 +546,52 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -742,15 +783,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -800,9 +832,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -811,9 +840,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -850,9 +876,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -860,8 +883,21 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -869,10 +905,73 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1147,7 +1246,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1160,8 +1259,8 @@
   </sheetPr>
   <dimension ref="A1:AY1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AW18" sqref="AW18"/>
+    <sheetView tabSelected="1" topLeftCell="O7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AC24" sqref="AC24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1206,67 +1305,67 @@
     <col min="45" max="45" width="5.85546875" customWidth="1"/>
     <col min="46" max="46" width="6.85546875" customWidth="1"/>
     <col min="47" max="47" width="5.7109375" customWidth="1"/>
-    <col min="48" max="48" width="8.140625" customWidth="1"/>
+    <col min="48" max="48" width="10" customWidth="1"/>
     <col min="49" max="49" width="6.85546875" customWidth="1"/>
     <col min="50" max="50" width="7.7109375" customWidth="1"/>
-    <col min="51" max="51" width="6.7109375" customWidth="1"/>
+    <col min="51" max="51" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:51" ht="24.75" customHeight="1">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="118" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
       <c r="J1" s="38"/>
       <c r="K1" s="38"/>
       <c r="L1" s="39"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
-      <c r="O1" s="81" t="s">
+      <c r="O1" s="118" t="s">
         <v>37</v>
       </c>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="82"/>
-      <c r="V1" s="82"/>
-      <c r="W1" s="82"/>
+      <c r="P1" s="119"/>
+      <c r="Q1" s="119"/>
+      <c r="R1" s="119"/>
+      <c r="S1" s="119"/>
+      <c r="T1" s="119"/>
+      <c r="U1" s="119"/>
+      <c r="V1" s="119"/>
+      <c r="W1" s="119"/>
       <c r="X1" s="38"/>
       <c r="Y1" s="38"/>
       <c r="Z1" s="39"/>
-      <c r="AC1" s="81" t="s">
+      <c r="AC1" s="118" t="s">
         <v>41</v>
       </c>
-      <c r="AD1" s="82"/>
-      <c r="AE1" s="82"/>
-      <c r="AF1" s="82"/>
-      <c r="AG1" s="82"/>
-      <c r="AH1" s="82"/>
-      <c r="AI1" s="82"/>
-      <c r="AJ1" s="82"/>
-      <c r="AK1" s="119"/>
-      <c r="AL1" s="84"/>
-      <c r="AM1" s="84"/>
-      <c r="AN1" s="81" t="s">
+      <c r="AD1" s="119"/>
+      <c r="AE1" s="119"/>
+      <c r="AF1" s="119"/>
+      <c r="AG1" s="119"/>
+      <c r="AH1" s="119"/>
+      <c r="AI1" s="119"/>
+      <c r="AJ1" s="119"/>
+      <c r="AK1" s="122"/>
+      <c r="AL1" s="81"/>
+      <c r="AM1" s="81"/>
+      <c r="AN1" s="118" t="s">
         <v>51</v>
       </c>
-      <c r="AO1" s="82"/>
-      <c r="AP1" s="82"/>
-      <c r="AQ1" s="82"/>
-      <c r="AR1" s="82"/>
-      <c r="AS1" s="82"/>
-      <c r="AT1" s="82"/>
-      <c r="AU1" s="82"/>
-      <c r="AV1" s="82"/>
+      <c r="AO1" s="119"/>
+      <c r="AP1" s="119"/>
+      <c r="AQ1" s="119"/>
+      <c r="AR1" s="119"/>
+      <c r="AS1" s="119"/>
+      <c r="AT1" s="119"/>
+      <c r="AU1" s="119"/>
+      <c r="AV1" s="119"/>
       <c r="AW1" s="38"/>
       <c r="AX1" s="38"/>
       <c r="AY1" s="39"/>
@@ -1275,16 +1374,16 @@
       <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="121" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
       <c r="L2" s="20"/>
@@ -1293,16 +1392,16 @@
       <c r="O2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="P2" s="123" t="s">
+      <c r="P2" s="120" t="s">
         <v>38</v>
       </c>
-      <c r="Q2" s="123"/>
-      <c r="R2" s="123"/>
-      <c r="S2" s="123"/>
-      <c r="T2" s="123"/>
-      <c r="U2" s="123"/>
-      <c r="V2" s="123"/>
-      <c r="W2" s="123"/>
+      <c r="Q2" s="120"/>
+      <c r="R2" s="120"/>
+      <c r="S2" s="120"/>
+      <c r="T2" s="120"/>
+      <c r="U2" s="120"/>
+      <c r="V2" s="120"/>
+      <c r="W2" s="120"/>
       <c r="X2" s="7"/>
       <c r="Y2" s="7"/>
       <c r="Z2" s="44"/>
@@ -1310,31 +1409,31 @@
       <c r="AC2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="AD2" s="124" t="s">
+      <c r="AD2" s="123" t="s">
         <v>47</v>
       </c>
-      <c r="AE2" s="124"/>
-      <c r="AF2" s="124"/>
-      <c r="AG2" s="124"/>
-      <c r="AH2" s="124"/>
-      <c r="AI2" s="124"/>
-      <c r="AJ2" s="124"/>
-      <c r="AK2" s="125"/>
-      <c r="AL2" s="85"/>
-      <c r="AM2" s="85"/>
+      <c r="AE2" s="123"/>
+      <c r="AF2" s="123"/>
+      <c r="AG2" s="123"/>
+      <c r="AH2" s="123"/>
+      <c r="AI2" s="123"/>
+      <c r="AJ2" s="123"/>
+      <c r="AK2" s="124"/>
+      <c r="AL2" s="82"/>
+      <c r="AM2" s="82"/>
       <c r="AN2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="AO2" s="123" t="s">
+      <c r="AO2" s="120" t="s">
         <v>52</v>
       </c>
-      <c r="AP2" s="123"/>
-      <c r="AQ2" s="123"/>
-      <c r="AR2" s="123"/>
-      <c r="AS2" s="123"/>
-      <c r="AT2" s="123"/>
-      <c r="AU2" s="123"/>
-      <c r="AV2" s="123"/>
+      <c r="AP2" s="120"/>
+      <c r="AQ2" s="120"/>
+      <c r="AR2" s="120"/>
+      <c r="AS2" s="120"/>
+      <c r="AT2" s="120"/>
+      <c r="AU2" s="120"/>
+      <c r="AV2" s="120"/>
       <c r="AW2" s="7"/>
       <c r="AX2" s="7"/>
       <c r="AY2" s="44"/>
@@ -1381,14 +1480,14 @@
       <c r="AH3" s="9"/>
       <c r="AI3" s="9"/>
       <c r="AJ3" s="9"/>
-      <c r="AK3" s="120"/>
+      <c r="AK3" s="114"/>
       <c r="AL3" s="45"/>
       <c r="AM3" s="45"/>
       <c r="AN3" s="29" t="s">
         <v>1</v>
       </c>
       <c r="AO3" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AP3" s="8"/>
       <c r="AQ3" s="9"/>
@@ -1471,7 +1570,7 @@
       <c r="Z4" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="AC4" s="122" t="s">
+      <c r="AC4" s="116" t="s">
         <v>45</v>
       </c>
       <c r="AD4" s="38">
@@ -1496,38 +1595,40 @@
       <c r="AK4" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="AL4" s="86"/>
-      <c r="AM4" s="86"/>
-      <c r="AN4" s="30"/>
-      <c r="AO4" s="5" t="s">
+      <c r="AL4" s="83"/>
+      <c r="AM4" s="83"/>
+      <c r="AN4" s="116"/>
+      <c r="AO4" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="AP4" s="5" t="s">
+      <c r="AP4" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="AQ4" s="5" t="s">
+      <c r="AQ4" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="AR4" s="5" t="s">
+      <c r="AR4" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="AS4" s="5" t="s">
+      <c r="AS4" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="AT4" s="5" t="s">
+      <c r="AT4" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="AU4" s="5"/>
-      <c r="AV4" s="5" t="s">
+      <c r="AU4" s="39"/>
+      <c r="AV4" s="116" t="s">
         <v>8</v>
       </c>
-      <c r="AW4" s="5" t="s">
+      <c r="AW4" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="AX4" s="5" t="s">
+      <c r="AX4" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="AY4" s="19"/>
+      <c r="AY4" s="39" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="5" spans="1:51" ht="12.75">
       <c r="A5" s="31" t="s">
@@ -1591,59 +1692,61 @@
       <c r="X5" s="68"/>
       <c r="Y5" s="69"/>
       <c r="Z5" s="70"/>
-      <c r="AC5" s="113" t="s">
+      <c r="AC5" s="108" t="s">
         <v>44</v>
       </c>
-      <c r="AD5" s="114">
+      <c r="AD5" s="109">
         <v>0</v>
       </c>
-      <c r="AE5" s="114">
+      <c r="AE5" s="109">
         <v>1</v>
       </c>
-      <c r="AF5" s="114">
+      <c r="AF5" s="109">
         <v>0</v>
       </c>
-      <c r="AG5" s="114">
+      <c r="AG5" s="109">
         <v>1</v>
       </c>
-      <c r="AH5" s="114"/>
-      <c r="AI5" s="114"/>
-      <c r="AJ5" s="114"/>
-      <c r="AK5" s="121"/>
-      <c r="AL5" s="87"/>
-      <c r="AM5" s="88"/>
-      <c r="AN5" s="99" t="s">
+      <c r="AH5" s="109"/>
+      <c r="AI5" s="109"/>
+      <c r="AJ5" s="109"/>
+      <c r="AK5" s="115"/>
+      <c r="AL5" s="84"/>
+      <c r="AM5" s="85"/>
+      <c r="AN5" s="138" t="s">
         <v>31</v>
       </c>
-      <c r="AO5" s="99">
+      <c r="AO5" s="126">
         <v>30</v>
       </c>
-      <c r="AP5" s="100">
+      <c r="AP5" s="127">
         <v>16</v>
       </c>
-      <c r="AQ5" s="100">
+      <c r="AQ5" s="127">
         <v>32</v>
       </c>
-      <c r="AR5" s="100">
-        <v>29</v>
-      </c>
-      <c r="AS5" s="100">
+      <c r="AR5" s="127">
+        <v>26</v>
+      </c>
+      <c r="AS5" s="127">
         <v>28</v>
       </c>
-      <c r="AT5" s="100">
+      <c r="AT5" s="127">
         <v>16</v>
       </c>
-      <c r="AU5" s="107"/>
-      <c r="AV5" s="48">
+      <c r="AU5" s="141"/>
+      <c r="AV5" s="126">
         <v>5</v>
       </c>
-      <c r="AW5" s="48">
+      <c r="AW5" s="137">
         <v>6</v>
       </c>
-      <c r="AX5" s="48">
+      <c r="AX5" s="127">
         <v>16</v>
       </c>
-      <c r="AY5" s="95"/>
+      <c r="AY5" s="128" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="6" spans="1:51" ht="12.75">
       <c r="A6" s="57"/>
@@ -1671,37 +1774,51 @@
       <c r="X6" s="55"/>
       <c r="Y6" s="55"/>
       <c r="Z6" s="56"/>
-      <c r="AC6" s="118" t="s">
+      <c r="AC6" s="113" t="s">
         <v>50</v>
       </c>
-      <c r="AD6" s="115"/>
-      <c r="AE6" s="115"/>
-      <c r="AF6" s="115"/>
-      <c r="AG6" s="115"/>
-      <c r="AH6" s="115"/>
-      <c r="AI6" s="116">
+      <c r="AD6" s="110"/>
+      <c r="AE6" s="110"/>
+      <c r="AF6" s="110"/>
+      <c r="AG6" s="110"/>
+      <c r="AH6" s="110"/>
+      <c r="AI6" s="111">
         <v>0</v>
       </c>
-      <c r="AJ6" s="116">
+      <c r="AJ6" s="111">
         <v>3</v>
       </c>
-      <c r="AK6" s="117">
+      <c r="AK6" s="112">
         <v>0</v>
       </c>
       <c r="AL6" s="45"/>
       <c r="AM6" s="45"/>
-      <c r="AN6" s="126"/>
-      <c r="AO6" s="126"/>
-      <c r="AP6" s="127"/>
-      <c r="AQ6" s="127"/>
-      <c r="AR6" s="127"/>
-      <c r="AS6" s="127"/>
-      <c r="AT6" s="127"/>
-      <c r="AU6" s="128"/>
-      <c r="AV6" s="48"/>
-      <c r="AW6" s="87"/>
-      <c r="AX6" s="48"/>
-      <c r="AY6" s="95"/>
+      <c r="AN6" s="129" t="s">
+        <v>31</v>
+      </c>
+      <c r="AO6" s="91">
+        <v>30</v>
+      </c>
+      <c r="AP6" s="48">
+        <v>16</v>
+      </c>
+      <c r="AQ6" s="48">
+        <v>32</v>
+      </c>
+      <c r="AR6" s="48">
+        <v>26</v>
+      </c>
+      <c r="AS6" s="48">
+        <v>28</v>
+      </c>
+      <c r="AT6" s="48">
+        <v>16</v>
+      </c>
+      <c r="AU6" s="70"/>
+      <c r="AV6" s="71"/>
+      <c r="AW6" s="68"/>
+      <c r="AX6" s="68"/>
+      <c r="AY6" s="70"/>
     </row>
     <row r="7" spans="1:51" ht="12.75">
       <c r="A7" s="32" t="s">
@@ -1751,41 +1868,47 @@
       <c r="Z7" s="23">
         <v>5</v>
       </c>
-      <c r="AC7" s="108" t="s">
+      <c r="AC7" s="103" t="s">
         <v>43</v>
       </c>
-      <c r="AD7" s="108"/>
-      <c r="AE7" s="109"/>
-      <c r="AF7" s="109"/>
-      <c r="AG7" s="109">
+      <c r="AD7" s="103"/>
+      <c r="AE7" s="104"/>
+      <c r="AF7" s="104"/>
+      <c r="AG7" s="104">
         <v>0</v>
       </c>
-      <c r="AH7" s="92"/>
-      <c r="AI7" s="92">
+      <c r="AH7" s="89"/>
+      <c r="AI7" s="89">
         <v>1</v>
       </c>
-      <c r="AJ7" s="92">
+      <c r="AJ7" s="89">
         <v>3</v>
       </c>
-      <c r="AK7" s="93">
+      <c r="AK7" s="90">
         <v>2</v>
       </c>
       <c r="AL7" s="46"/>
       <c r="AM7" s="46"/>
-      <c r="AN7" s="94" t="s">
-        <v>31</v>
-      </c>
-      <c r="AO7" s="94"/>
-      <c r="AP7" s="48"/>
-      <c r="AQ7" s="48"/>
-      <c r="AR7" s="48"/>
-      <c r="AS7" s="48"/>
-      <c r="AT7" s="48"/>
-      <c r="AU7" s="95"/>
-      <c r="AV7" s="48"/>
-      <c r="AW7" s="48"/>
-      <c r="AX7" s="48"/>
-      <c r="AY7" s="95"/>
+      <c r="AN7" s="139"/>
+      <c r="AO7" s="50"/>
+      <c r="AP7" s="51"/>
+      <c r="AQ7" s="51"/>
+      <c r="AR7" s="51"/>
+      <c r="AS7" s="51"/>
+      <c r="AT7" s="51"/>
+      <c r="AU7" s="74"/>
+      <c r="AV7" s="91">
+        <v>4</v>
+      </c>
+      <c r="AW7" s="89">
+        <v>5</v>
+      </c>
+      <c r="AX7" s="84">
+        <v>28</v>
+      </c>
+      <c r="AY7" s="131">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" spans="1:51" ht="12.75">
       <c r="A8" s="32" t="s">
@@ -1823,39 +1946,53 @@
       <c r="X8" s="52"/>
       <c r="Y8" s="52"/>
       <c r="Z8" s="53"/>
-      <c r="AC8" s="108" t="s">
+      <c r="AC8" s="103" t="s">
         <v>43</v>
       </c>
-      <c r="AD8" s="108"/>
-      <c r="AE8" s="109"/>
-      <c r="AF8" s="109">
+      <c r="AD8" s="103"/>
+      <c r="AE8" s="104"/>
+      <c r="AF8" s="104">
         <v>0</v>
       </c>
-      <c r="AG8" s="109"/>
-      <c r="AH8" s="92"/>
-      <c r="AI8" s="92">
+      <c r="AG8" s="104"/>
+      <c r="AH8" s="89"/>
+      <c r="AI8" s="89">
         <v>1</v>
       </c>
-      <c r="AJ8" s="92">
+      <c r="AJ8" s="89">
         <v>2</v>
       </c>
-      <c r="AK8" s="93">
+      <c r="AK8" s="90">
         <v>2</v>
       </c>
       <c r="AL8" s="46"/>
       <c r="AM8" s="46"/>
-      <c r="AN8" s="94"/>
-      <c r="AO8" s="94"/>
-      <c r="AP8" s="48"/>
-      <c r="AQ8" s="48"/>
-      <c r="AR8" s="48"/>
-      <c r="AS8" s="48"/>
-      <c r="AT8" s="48"/>
-      <c r="AU8" s="95"/>
-      <c r="AV8" s="48"/>
-      <c r="AW8" s="87"/>
-      <c r="AX8" s="48"/>
-      <c r="AY8" s="95"/>
+      <c r="AN8" s="145" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO8" s="133"/>
+      <c r="AP8" s="132"/>
+      <c r="AQ8" s="132"/>
+      <c r="AR8" s="132"/>
+      <c r="AS8" s="97">
+        <v>28</v>
+      </c>
+      <c r="AT8" s="97">
+        <v>16</v>
+      </c>
+      <c r="AU8" s="134"/>
+      <c r="AV8" s="91">
+        <v>4</v>
+      </c>
+      <c r="AW8" s="89">
+        <v>6</v>
+      </c>
+      <c r="AX8" s="84">
+        <v>28</v>
+      </c>
+      <c r="AY8" s="131">
+        <v>16</v>
+      </c>
     </row>
     <row r="9" spans="1:51" ht="12.75">
       <c r="A9" s="57"/>
@@ -1895,41 +2032,53 @@
       <c r="Z9" s="23">
         <v>5</v>
       </c>
-      <c r="AC9" s="108" t="s">
+      <c r="AC9" s="103" t="s">
         <v>43</v>
       </c>
-      <c r="AD9" s="108"/>
-      <c r="AE9" s="109">
+      <c r="AD9" s="103"/>
+      <c r="AE9" s="104">
         <v>1</v>
       </c>
-      <c r="AF9" s="109"/>
-      <c r="AG9" s="109"/>
-      <c r="AH9" s="92"/>
-      <c r="AI9" s="92">
+      <c r="AF9" s="104"/>
+      <c r="AG9" s="104"/>
+      <c r="AH9" s="89"/>
+      <c r="AI9" s="89">
         <v>1</v>
       </c>
-      <c r="AJ9" s="92">
+      <c r="AJ9" s="89">
         <v>1</v>
       </c>
-      <c r="AK9" s="93">
+      <c r="AK9" s="90">
         <v>3</v>
       </c>
       <c r="AL9" s="46"/>
       <c r="AM9" s="46"/>
-      <c r="AN9" s="94" t="s">
+      <c r="AN9" s="129" t="s">
         <v>31</v>
       </c>
-      <c r="AO9" s="94"/>
-      <c r="AP9" s="48"/>
-      <c r="AQ9" s="48"/>
-      <c r="AR9" s="48"/>
-      <c r="AS9" s="87"/>
-      <c r="AT9" s="87"/>
-      <c r="AU9" s="95"/>
-      <c r="AV9" s="48"/>
-      <c r="AW9" s="48"/>
-      <c r="AX9" s="48"/>
-      <c r="AY9" s="95"/>
+      <c r="AO9" s="91">
+        <v>30</v>
+      </c>
+      <c r="AP9" s="48">
+        <v>16</v>
+      </c>
+      <c r="AQ9" s="48">
+        <v>32</v>
+      </c>
+      <c r="AR9" s="48">
+        <v>26</v>
+      </c>
+      <c r="AS9" s="84">
+        <v>16</v>
+      </c>
+      <c r="AT9" s="84">
+        <v>28</v>
+      </c>
+      <c r="AU9" s="70"/>
+      <c r="AV9" s="71"/>
+      <c r="AW9" s="68"/>
+      <c r="AX9" s="68"/>
+      <c r="AY9" s="70"/>
     </row>
     <row r="10" spans="1:51" ht="12.75">
       <c r="A10" s="33" t="s">
@@ -1960,39 +2109,47 @@
       <c r="X10" s="52"/>
       <c r="Y10" s="52"/>
       <c r="Z10" s="53"/>
-      <c r="AC10" s="108" t="s">
+      <c r="AC10" s="103" t="s">
         <v>43</v>
       </c>
-      <c r="AD10" s="108">
+      <c r="AD10" s="103">
         <v>1</v>
       </c>
-      <c r="AE10" s="109"/>
-      <c r="AF10" s="109"/>
-      <c r="AG10" s="109"/>
-      <c r="AH10" s="92"/>
-      <c r="AI10" s="92">
+      <c r="AE10" s="104"/>
+      <c r="AF10" s="104"/>
+      <c r="AG10" s="104"/>
+      <c r="AH10" s="89"/>
+      <c r="AI10" s="89">
         <v>1</v>
       </c>
-      <c r="AJ10" s="92">
+      <c r="AJ10" s="89">
         <v>0</v>
       </c>
-      <c r="AK10" s="95" t="s">
+      <c r="AK10" s="92" t="s">
         <v>48</v>
       </c>
       <c r="AL10" s="46"/>
       <c r="AM10" s="46"/>
-      <c r="AN10" s="94"/>
-      <c r="AO10" s="94"/>
-      <c r="AP10" s="48"/>
-      <c r="AQ10" s="48"/>
-      <c r="AR10" s="48"/>
-      <c r="AS10" s="48"/>
-      <c r="AT10" s="48"/>
-      <c r="AU10" s="95"/>
-      <c r="AV10" s="48"/>
-      <c r="AW10" s="87"/>
-      <c r="AX10" s="48"/>
-      <c r="AY10" s="95"/>
+      <c r="AN10" s="139"/>
+      <c r="AO10" s="50"/>
+      <c r="AP10" s="51"/>
+      <c r="AQ10" s="51"/>
+      <c r="AR10" s="51"/>
+      <c r="AS10" s="51"/>
+      <c r="AT10" s="51"/>
+      <c r="AU10" s="74"/>
+      <c r="AV10" s="91">
+        <v>3</v>
+      </c>
+      <c r="AW10" s="89">
+        <v>4</v>
+      </c>
+      <c r="AX10" s="84">
+        <v>26</v>
+      </c>
+      <c r="AY10" s="131">
+        <v>16</v>
+      </c>
     </row>
     <row r="11" spans="1:51" ht="12.75">
       <c r="A11" s="31" t="s">
@@ -2035,41 +2192,45 @@
       <c r="Z11" s="23">
         <v>5</v>
       </c>
-      <c r="AC11" s="110" t="s">
+      <c r="AC11" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="AD11" s="110">
+      <c r="AD11" s="105">
         <v>1</v>
       </c>
-      <c r="AE11" s="111">
+      <c r="AE11" s="106">
         <v>1</v>
       </c>
-      <c r="AF11" s="111">
+      <c r="AF11" s="106">
         <v>0</v>
       </c>
-      <c r="AG11" s="111">
+      <c r="AG11" s="106">
         <v>0</v>
       </c>
-      <c r="AH11" s="105"/>
-      <c r="AI11" s="105"/>
-      <c r="AJ11" s="105"/>
-      <c r="AK11" s="98"/>
+      <c r="AH11" s="101"/>
+      <c r="AI11" s="101"/>
+      <c r="AJ11" s="101"/>
+      <c r="AK11" s="95"/>
       <c r="AL11" s="46"/>
       <c r="AM11" s="46"/>
-      <c r="AN11" s="94" t="s">
-        <v>31</v>
-      </c>
-      <c r="AO11" s="94"/>
-      <c r="AP11" s="48"/>
-      <c r="AQ11" s="48"/>
-      <c r="AR11" s="48"/>
-      <c r="AS11" s="48"/>
-      <c r="AT11" s="48"/>
-      <c r="AU11" s="95"/>
-      <c r="AV11" s="48"/>
-      <c r="AW11" s="87"/>
-      <c r="AX11" s="48"/>
-      <c r="AY11" s="95"/>
+      <c r="AN11" s="145" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO11" s="133"/>
+      <c r="AP11" s="132"/>
+      <c r="AQ11" s="132"/>
+      <c r="AR11" s="97">
+        <v>26</v>
+      </c>
+      <c r="AS11" s="97">
+        <v>16</v>
+      </c>
+      <c r="AT11" s="132"/>
+      <c r="AU11" s="134"/>
+      <c r="AV11" s="71"/>
+      <c r="AW11" s="68"/>
+      <c r="AX11" s="68"/>
+      <c r="AY11" s="70"/>
     </row>
     <row r="12" spans="1:51" ht="12.75">
       <c r="A12" s="57"/>
@@ -2097,33 +2258,47 @@
       <c r="X12" s="52"/>
       <c r="Y12" s="52"/>
       <c r="Z12" s="54"/>
-      <c r="AC12" s="112" t="s">
+      <c r="AC12" s="107" t="s">
         <v>49</v>
       </c>
-      <c r="AD12" s="102">
+      <c r="AD12" s="98">
         <v>4</v>
       </c>
-      <c r="AE12" s="102"/>
-      <c r="AF12" s="102"/>
-      <c r="AG12" s="102"/>
-      <c r="AH12" s="102"/>
-      <c r="AI12" s="102"/>
-      <c r="AJ12" s="102"/>
-      <c r="AK12" s="107"/>
+      <c r="AE12" s="98"/>
+      <c r="AF12" s="98"/>
+      <c r="AG12" s="98"/>
+      <c r="AH12" s="98"/>
+      <c r="AI12" s="98"/>
+      <c r="AJ12" s="98"/>
+      <c r="AK12" s="102"/>
       <c r="AL12" s="46"/>
       <c r="AM12" s="46"/>
-      <c r="AN12" s="94"/>
-      <c r="AO12" s="94"/>
-      <c r="AP12" s="48"/>
-      <c r="AQ12" s="87"/>
-      <c r="AR12" s="87"/>
-      <c r="AS12" s="48"/>
-      <c r="AT12" s="48"/>
-      <c r="AU12" s="95"/>
-      <c r="AV12" s="48"/>
-      <c r="AW12" s="48"/>
-      <c r="AX12" s="48"/>
-      <c r="AY12" s="129"/>
+      <c r="AN12" s="129" t="s">
+        <v>31</v>
+      </c>
+      <c r="AO12" s="91">
+        <v>30</v>
+      </c>
+      <c r="AP12" s="48">
+        <v>16</v>
+      </c>
+      <c r="AQ12" s="48">
+        <v>32</v>
+      </c>
+      <c r="AR12" s="84">
+        <v>16</v>
+      </c>
+      <c r="AS12" s="84">
+        <v>26</v>
+      </c>
+      <c r="AT12" s="48">
+        <v>28</v>
+      </c>
+      <c r="AU12" s="70"/>
+      <c r="AV12" s="71"/>
+      <c r="AW12" s="68"/>
+      <c r="AX12" s="68"/>
+      <c r="AY12" s="70"/>
     </row>
     <row r="13" spans="1:51" ht="12.75">
       <c r="A13" s="31" t="s">
@@ -2170,31 +2345,37 @@
       <c r="X13" s="68"/>
       <c r="Y13" s="68"/>
       <c r="Z13" s="70"/>
-      <c r="AC13" s="87"/>
-      <c r="AD13" s="87"/>
-      <c r="AE13" s="87"/>
-      <c r="AF13" s="87"/>
-      <c r="AG13" s="87"/>
-      <c r="AH13" s="87"/>
-      <c r="AI13" s="87"/>
-      <c r="AJ13" s="87"/>
-      <c r="AK13" s="87"/>
-      <c r="AL13" s="87"/>
-      <c r="AM13" s="87"/>
-      <c r="AN13" s="106" t="s">
-        <v>31</v>
-      </c>
-      <c r="AO13" s="94"/>
-      <c r="AP13" s="48"/>
-      <c r="AQ13" s="48"/>
-      <c r="AR13" s="87"/>
-      <c r="AS13" s="87"/>
-      <c r="AT13" s="48"/>
-      <c r="AU13" s="95"/>
-      <c r="AV13" s="48"/>
-      <c r="AW13" s="48"/>
-      <c r="AX13" s="48"/>
-      <c r="AY13" s="95"/>
+      <c r="AC13" s="84"/>
+      <c r="AD13" s="84"/>
+      <c r="AE13" s="84"/>
+      <c r="AF13" s="84"/>
+      <c r="AG13" s="84"/>
+      <c r="AH13" s="84"/>
+      <c r="AI13" s="84"/>
+      <c r="AJ13" s="84"/>
+      <c r="AK13" s="84"/>
+      <c r="AL13" s="84"/>
+      <c r="AM13" s="84"/>
+      <c r="AN13" s="139"/>
+      <c r="AO13" s="50"/>
+      <c r="AP13" s="51"/>
+      <c r="AQ13" s="51"/>
+      <c r="AR13" s="51"/>
+      <c r="AS13" s="51"/>
+      <c r="AT13" s="51"/>
+      <c r="AU13" s="74"/>
+      <c r="AV13" s="91">
+        <v>3</v>
+      </c>
+      <c r="AW13" s="89">
+        <v>5</v>
+      </c>
+      <c r="AX13" s="84">
+        <v>26</v>
+      </c>
+      <c r="AY13" s="131">
+        <v>28</v>
+      </c>
     </row>
     <row r="14" spans="1:51" ht="12.75">
       <c r="A14" s="31" t="s">
@@ -2234,18 +2415,32 @@
       <c r="AK14" s="48"/>
       <c r="AL14" s="46"/>
       <c r="AM14" s="46"/>
-      <c r="AN14" s="94"/>
-      <c r="AO14" s="94"/>
-      <c r="AP14" s="48"/>
-      <c r="AQ14" s="48"/>
-      <c r="AR14" s="48"/>
-      <c r="AS14" s="87"/>
-      <c r="AT14" s="87"/>
-      <c r="AU14" s="95"/>
-      <c r="AV14" s="48"/>
-      <c r="AW14" s="48"/>
-      <c r="AX14" s="48"/>
-      <c r="AY14" s="129"/>
+      <c r="AN14" s="129" t="s">
+        <v>31</v>
+      </c>
+      <c r="AO14" s="91">
+        <v>30</v>
+      </c>
+      <c r="AP14" s="48">
+        <v>16</v>
+      </c>
+      <c r="AQ14" s="48">
+        <v>32</v>
+      </c>
+      <c r="AR14" s="48">
+        <v>16</v>
+      </c>
+      <c r="AS14" s="48">
+        <v>26</v>
+      </c>
+      <c r="AT14" s="48">
+        <v>28</v>
+      </c>
+      <c r="AU14" s="70"/>
+      <c r="AV14" s="71"/>
+      <c r="AW14" s="68"/>
+      <c r="AX14" s="68"/>
+      <c r="AY14" s="70"/>
     </row>
     <row r="15" spans="1:51" ht="12.75">
       <c r="A15" s="57"/>
@@ -2287,29 +2482,35 @@
       </c>
       <c r="AC15" s="48"/>
       <c r="AD15" s="48"/>
-      <c r="AE15" s="87"/>
-      <c r="AF15" s="87"/>
+      <c r="AE15" s="84"/>
+      <c r="AF15" s="84"/>
       <c r="AG15" s="48"/>
-      <c r="AH15" s="87"/>
-      <c r="AI15" s="87"/>
-      <c r="AJ15" s="87"/>
-      <c r="AK15" s="87"/>
+      <c r="AH15" s="84"/>
+      <c r="AI15" s="84"/>
+      <c r="AJ15" s="84"/>
+      <c r="AK15" s="84"/>
       <c r="AL15" s="46"/>
       <c r="AM15" s="48"/>
-      <c r="AN15" s="94" t="s">
-        <v>31</v>
-      </c>
-      <c r="AO15" s="94"/>
-      <c r="AP15" s="48"/>
-      <c r="AQ15" s="48"/>
-      <c r="AR15" s="48"/>
-      <c r="AS15" s="48"/>
-      <c r="AT15" s="48"/>
-      <c r="AU15" s="95"/>
-      <c r="AV15" s="48"/>
-      <c r="AW15" s="87"/>
-      <c r="AX15" s="48"/>
-      <c r="AY15" s="95"/>
+      <c r="AN15" s="139"/>
+      <c r="AO15" s="50"/>
+      <c r="AP15" s="51"/>
+      <c r="AQ15" s="51"/>
+      <c r="AR15" s="51"/>
+      <c r="AS15" s="51"/>
+      <c r="AT15" s="51"/>
+      <c r="AU15" s="74"/>
+      <c r="AV15" s="91">
+        <v>2</v>
+      </c>
+      <c r="AW15" s="89">
+        <v>3</v>
+      </c>
+      <c r="AX15" s="84">
+        <v>32</v>
+      </c>
+      <c r="AY15" s="131">
+        <v>16</v>
+      </c>
     </row>
     <row r="16" spans="1:51" ht="12.75">
       <c r="A16" s="31" t="s">
@@ -2348,18 +2549,24 @@
       <c r="AK16" s="46"/>
       <c r="AL16" s="45"/>
       <c r="AM16" s="45"/>
-      <c r="AN16" s="126"/>
-      <c r="AO16" s="94"/>
-      <c r="AP16" s="48"/>
-      <c r="AQ16" s="48"/>
-      <c r="AR16" s="48"/>
-      <c r="AS16" s="48"/>
-      <c r="AT16" s="48"/>
-      <c r="AU16" s="95"/>
-      <c r="AV16" s="48"/>
-      <c r="AW16" s="48"/>
-      <c r="AX16" s="48"/>
-      <c r="AY16" s="95"/>
+      <c r="AN16" s="129" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO16" s="71"/>
+      <c r="AP16" s="68"/>
+      <c r="AQ16" s="84">
+        <v>32</v>
+      </c>
+      <c r="AR16" s="84">
+        <v>16</v>
+      </c>
+      <c r="AS16" s="68"/>
+      <c r="AT16" s="68"/>
+      <c r="AU16" s="70"/>
+      <c r="AV16" s="91"/>
+      <c r="AW16" s="89"/>
+      <c r="AX16" s="84"/>
+      <c r="AY16" s="131"/>
     </row>
     <row r="17" spans="1:51" ht="12.75">
       <c r="A17" s="31" t="s">
@@ -2400,30 +2607,42 @@
         <v>3</v>
       </c>
       <c r="AC17" s="48"/>
-      <c r="AD17" s="87"/>
+      <c r="AD17" s="84"/>
       <c r="AE17" s="48"/>
-      <c r="AF17" s="87"/>
-      <c r="AG17" s="87"/>
+      <c r="AF17" s="84"/>
+      <c r="AG17" s="84"/>
       <c r="AH17" s="48"/>
-      <c r="AI17" s="87"/>
-      <c r="AJ17" s="87"/>
-      <c r="AK17" s="87"/>
+      <c r="AI17" s="84"/>
+      <c r="AJ17" s="84"/>
+      <c r="AK17" s="84"/>
       <c r="AL17" s="46"/>
       <c r="AM17" s="46"/>
-      <c r="AN17" s="94" t="s">
+      <c r="AN17" s="129" t="s">
         <v>31</v>
       </c>
-      <c r="AO17" s="94"/>
-      <c r="AP17" s="48"/>
-      <c r="AQ17" s="48"/>
-      <c r="AR17" s="48"/>
-      <c r="AS17" s="48"/>
-      <c r="AT17" s="48"/>
-      <c r="AU17" s="95"/>
-      <c r="AV17" s="48"/>
-      <c r="AW17" s="48"/>
-      <c r="AX17" s="48"/>
-      <c r="AY17" s="95"/>
+      <c r="AO17" s="91">
+        <v>30</v>
+      </c>
+      <c r="AP17" s="48">
+        <v>16</v>
+      </c>
+      <c r="AQ17" s="84">
+        <v>16</v>
+      </c>
+      <c r="AR17" s="84">
+        <v>32</v>
+      </c>
+      <c r="AS17" s="48">
+        <v>26</v>
+      </c>
+      <c r="AT17" s="48">
+        <v>28</v>
+      </c>
+      <c r="AU17" s="70"/>
+      <c r="AV17" s="71"/>
+      <c r="AW17" s="68"/>
+      <c r="AX17" s="68"/>
+      <c r="AY17" s="70"/>
     </row>
     <row r="18" spans="1:51" ht="12.75">
       <c r="A18" s="57"/>
@@ -2461,18 +2680,26 @@
       <c r="AK18" s="48"/>
       <c r="AL18" s="46"/>
       <c r="AM18" s="46"/>
-      <c r="AN18" s="94"/>
-      <c r="AO18" s="94"/>
-      <c r="AP18" s="48"/>
-      <c r="AQ18" s="48"/>
-      <c r="AR18" s="48"/>
-      <c r="AS18" s="48"/>
-      <c r="AT18" s="48"/>
-      <c r="AU18" s="95"/>
-      <c r="AV18" s="48"/>
-      <c r="AW18" s="48"/>
-      <c r="AX18" s="48"/>
-      <c r="AY18" s="95"/>
+      <c r="AN18" s="139"/>
+      <c r="AO18" s="50"/>
+      <c r="AP18" s="51"/>
+      <c r="AQ18" s="51"/>
+      <c r="AR18" s="51"/>
+      <c r="AS18" s="51"/>
+      <c r="AT18" s="51"/>
+      <c r="AU18" s="74"/>
+      <c r="AV18" s="91">
+        <v>2</v>
+      </c>
+      <c r="AW18" s="89">
+        <v>4</v>
+      </c>
+      <c r="AX18" s="84">
+        <v>32</v>
+      </c>
+      <c r="AY18" s="131">
+        <v>26</v>
+      </c>
     </row>
     <row r="19" spans="1:51" ht="12.75">
       <c r="A19" s="12" t="s">
@@ -2518,30 +2745,34 @@
         <v>3</v>
       </c>
       <c r="AC19" s="48"/>
-      <c r="AD19" s="87"/>
-      <c r="AE19" s="87"/>
+      <c r="AD19" s="84"/>
+      <c r="AE19" s="84"/>
       <c r="AF19" s="48"/>
-      <c r="AG19" s="87"/>
-      <c r="AH19" s="87"/>
+      <c r="AG19" s="84"/>
+      <c r="AH19" s="84"/>
       <c r="AI19" s="48"/>
-      <c r="AJ19" s="87"/>
-      <c r="AK19" s="87"/>
+      <c r="AJ19" s="84"/>
+      <c r="AK19" s="84"/>
       <c r="AL19" s="46"/>
       <c r="AM19" s="46"/>
-      <c r="AN19" s="94" t="s">
-        <v>31</v>
-      </c>
-      <c r="AO19" s="94"/>
-      <c r="AP19" s="48"/>
-      <c r="AQ19" s="48"/>
-      <c r="AR19" s="48"/>
-      <c r="AS19" s="48"/>
-      <c r="AT19" s="48"/>
-      <c r="AU19" s="95"/>
-      <c r="AV19" s="48"/>
-      <c r="AW19" s="48"/>
-      <c r="AX19" s="48"/>
-      <c r="AY19" s="95"/>
+      <c r="AN19" s="145" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO19" s="133"/>
+      <c r="AP19" s="132"/>
+      <c r="AQ19" s="132"/>
+      <c r="AR19" s="97">
+        <v>32</v>
+      </c>
+      <c r="AS19" s="97">
+        <v>26</v>
+      </c>
+      <c r="AT19" s="97"/>
+      <c r="AU19" s="134"/>
+      <c r="AV19" s="71"/>
+      <c r="AW19" s="68"/>
+      <c r="AX19" s="68"/>
+      <c r="AY19" s="70"/>
     </row>
     <row r="20" spans="1:51" ht="12.75">
       <c r="A20" s="12" t="s">
@@ -2585,18 +2816,32 @@
       <c r="AK20" s="48"/>
       <c r="AL20" s="46"/>
       <c r="AM20" s="46"/>
-      <c r="AN20" s="94"/>
-      <c r="AO20" s="94"/>
-      <c r="AP20" s="48"/>
-      <c r="AQ20" s="48"/>
-      <c r="AR20" s="48"/>
-      <c r="AS20" s="48"/>
-      <c r="AT20" s="48"/>
-      <c r="AU20" s="95"/>
-      <c r="AV20" s="48"/>
-      <c r="AW20" s="48"/>
-      <c r="AX20" s="48"/>
-      <c r="AY20" s="95"/>
+      <c r="AN20" s="129" t="s">
+        <v>31</v>
+      </c>
+      <c r="AO20" s="91">
+        <v>30</v>
+      </c>
+      <c r="AP20" s="48">
+        <v>16</v>
+      </c>
+      <c r="AQ20" s="48">
+        <v>16</v>
+      </c>
+      <c r="AR20" s="84">
+        <v>26</v>
+      </c>
+      <c r="AS20" s="84">
+        <v>32</v>
+      </c>
+      <c r="AT20" s="48">
+        <v>28</v>
+      </c>
+      <c r="AU20" s="70"/>
+      <c r="AV20" s="71"/>
+      <c r="AW20" s="68"/>
+      <c r="AX20" s="68"/>
+      <c r="AY20" s="70"/>
     </row>
     <row r="21" spans="1:51" ht="12.75">
       <c r="A21" s="57"/>
@@ -2636,30 +2881,36 @@
         <v>3</v>
       </c>
       <c r="AC21" s="48"/>
-      <c r="AD21" s="87"/>
-      <c r="AE21" s="87"/>
-      <c r="AF21" s="87"/>
+      <c r="AD21" s="84"/>
+      <c r="AE21" s="84"/>
+      <c r="AF21" s="84"/>
       <c r="AG21" s="48"/>
-      <c r="AH21" s="87"/>
-      <c r="AI21" s="87"/>
+      <c r="AH21" s="84"/>
+      <c r="AI21" s="84"/>
       <c r="AJ21" s="48"/>
-      <c r="AK21" s="87"/>
+      <c r="AK21" s="84"/>
       <c r="AL21" s="46"/>
       <c r="AM21" s="46"/>
-      <c r="AN21" s="94" t="s">
-        <v>31</v>
-      </c>
-      <c r="AO21" s="94"/>
-      <c r="AP21" s="48"/>
-      <c r="AQ21" s="48"/>
-      <c r="AR21" s="48"/>
-      <c r="AS21" s="48"/>
-      <c r="AT21" s="48"/>
-      <c r="AU21" s="95"/>
-      <c r="AV21" s="48"/>
-      <c r="AW21" s="48"/>
-      <c r="AX21" s="48"/>
-      <c r="AY21" s="95"/>
+      <c r="AN21" s="139"/>
+      <c r="AO21" s="50"/>
+      <c r="AP21" s="51"/>
+      <c r="AQ21" s="51"/>
+      <c r="AR21" s="51"/>
+      <c r="AS21" s="51"/>
+      <c r="AT21" s="51"/>
+      <c r="AU21" s="74"/>
+      <c r="AV21" s="91">
+        <v>2</v>
+      </c>
+      <c r="AW21" s="89">
+        <v>5</v>
+      </c>
+      <c r="AX21" s="84">
+        <v>32</v>
+      </c>
+      <c r="AY21" s="131">
+        <v>28</v>
+      </c>
     </row>
     <row r="22" spans="1:51" ht="12.75">
       <c r="A22" s="12" t="s">
@@ -2701,18 +2952,22 @@
       <c r="AK22" s="48"/>
       <c r="AL22" s="46"/>
       <c r="AM22" s="46"/>
-      <c r="AN22" s="94"/>
-      <c r="AO22" s="94"/>
-      <c r="AP22" s="48"/>
-      <c r="AQ22" s="48"/>
-      <c r="AR22" s="48"/>
-      <c r="AS22" s="48"/>
-      <c r="AT22" s="48"/>
-      <c r="AU22" s="95"/>
-      <c r="AV22" s="48"/>
-      <c r="AW22" s="48"/>
-      <c r="AX22" s="48"/>
-      <c r="AY22" s="129"/>
+      <c r="AN22" s="140"/>
+      <c r="AO22" s="71"/>
+      <c r="AP22" s="68"/>
+      <c r="AQ22" s="68"/>
+      <c r="AR22" s="68"/>
+      <c r="AS22" s="84">
+        <v>32</v>
+      </c>
+      <c r="AT22" s="84">
+        <v>28</v>
+      </c>
+      <c r="AU22" s="70"/>
+      <c r="AV22" s="71"/>
+      <c r="AW22" s="68"/>
+      <c r="AX22" s="68"/>
+      <c r="AY22" s="70"/>
     </row>
     <row r="23" spans="1:51" ht="12.75">
       <c r="A23" s="12" t="s">
@@ -2756,30 +3011,42 @@
         <v>3</v>
       </c>
       <c r="AC23" s="48"/>
-      <c r="AD23" s="87"/>
-      <c r="AE23" s="87"/>
-      <c r="AF23" s="87"/>
-      <c r="AG23" s="87"/>
+      <c r="AD23" s="84"/>
+      <c r="AE23" s="84"/>
+      <c r="AF23" s="84"/>
+      <c r="AG23" s="84"/>
       <c r="AH23" s="48"/>
-      <c r="AI23" s="87"/>
-      <c r="AJ23" s="87"/>
+      <c r="AI23" s="84"/>
+      <c r="AJ23" s="84"/>
       <c r="AK23" s="48"/>
       <c r="AL23" s="46"/>
       <c r="AM23" s="46"/>
-      <c r="AN23" s="94" t="s">
+      <c r="AN23" s="129" t="s">
         <v>31</v>
       </c>
-      <c r="AO23" s="94"/>
-      <c r="AP23" s="48"/>
-      <c r="AQ23" s="48"/>
-      <c r="AR23" s="48"/>
-      <c r="AS23" s="48"/>
-      <c r="AT23" s="48"/>
-      <c r="AU23" s="95"/>
-      <c r="AV23" s="48"/>
-      <c r="AW23" s="48"/>
-      <c r="AX23" s="48"/>
-      <c r="AY23" s="95"/>
+      <c r="AO23" s="91">
+        <v>30</v>
+      </c>
+      <c r="AP23" s="48">
+        <v>16</v>
+      </c>
+      <c r="AQ23" s="48">
+        <v>16</v>
+      </c>
+      <c r="AR23" s="48">
+        <v>26</v>
+      </c>
+      <c r="AS23" s="84">
+        <v>28</v>
+      </c>
+      <c r="AT23" s="84">
+        <v>32</v>
+      </c>
+      <c r="AU23" s="70"/>
+      <c r="AV23" s="71"/>
+      <c r="AW23" s="68"/>
+      <c r="AX23" s="68"/>
+      <c r="AY23" s="70"/>
     </row>
     <row r="24" spans="1:51" ht="12.75">
       <c r="A24" s="57"/>
@@ -2817,18 +3084,26 @@
       <c r="AK24" s="48"/>
       <c r="AL24" s="46"/>
       <c r="AM24" s="46"/>
-      <c r="AN24" s="94"/>
-      <c r="AO24" s="94"/>
-      <c r="AP24" s="48"/>
-      <c r="AQ24" s="48"/>
-      <c r="AR24" s="48"/>
-      <c r="AS24" s="48"/>
-      <c r="AT24" s="48"/>
-      <c r="AU24" s="95"/>
-      <c r="AV24" s="48"/>
-      <c r="AW24" s="48"/>
-      <c r="AX24" s="48"/>
-      <c r="AY24" s="129"/>
+      <c r="AN24" s="139"/>
+      <c r="AO24" s="50"/>
+      <c r="AP24" s="51"/>
+      <c r="AQ24" s="51"/>
+      <c r="AR24" s="51"/>
+      <c r="AS24" s="51"/>
+      <c r="AT24" s="51"/>
+      <c r="AU24" s="74"/>
+      <c r="AV24" s="91">
+        <v>1</v>
+      </c>
+      <c r="AW24" s="89">
+        <v>2</v>
+      </c>
+      <c r="AX24" s="84">
+        <v>16</v>
+      </c>
+      <c r="AY24" s="131">
+        <v>16</v>
+      </c>
     </row>
     <row r="25" spans="1:51" ht="12.75">
       <c r="A25" s="12" t="s">
@@ -2877,31 +3152,29 @@
       <c r="X25" s="68"/>
       <c r="Y25" s="68"/>
       <c r="Z25" s="70"/>
-      <c r="AC25" s="87"/>
-      <c r="AD25" s="87"/>
-      <c r="AE25" s="87"/>
-      <c r="AF25" s="87"/>
-      <c r="AG25" s="87"/>
-      <c r="AH25" s="87"/>
-      <c r="AI25" s="87"/>
-      <c r="AJ25" s="87"/>
-      <c r="AK25" s="87"/>
-      <c r="AL25" s="87"/>
-      <c r="AM25" s="87"/>
-      <c r="AN25" s="106" t="s">
-        <v>31</v>
-      </c>
-      <c r="AO25" s="94"/>
-      <c r="AP25" s="48"/>
-      <c r="AQ25" s="48"/>
-      <c r="AR25" s="48"/>
-      <c r="AS25" s="48"/>
-      <c r="AT25" s="48"/>
-      <c r="AU25" s="95"/>
-      <c r="AV25" s="48"/>
-      <c r="AW25" s="48"/>
-      <c r="AX25" s="48"/>
-      <c r="AY25" s="95"/>
+      <c r="AC25" s="84"/>
+      <c r="AD25" s="84"/>
+      <c r="AE25" s="84"/>
+      <c r="AF25" s="84"/>
+      <c r="AG25" s="84"/>
+      <c r="AH25" s="84"/>
+      <c r="AI25" s="84"/>
+      <c r="AJ25" s="84"/>
+      <c r="AK25" s="84"/>
+      <c r="AL25" s="84"/>
+      <c r="AM25" s="84"/>
+      <c r="AN25" s="139"/>
+      <c r="AO25" s="50"/>
+      <c r="AP25" s="51"/>
+      <c r="AQ25" s="51"/>
+      <c r="AR25" s="51"/>
+      <c r="AS25" s="51"/>
+      <c r="AT25" s="51"/>
+      <c r="AU25" s="74"/>
+      <c r="AV25" s="50"/>
+      <c r="AW25" s="51"/>
+      <c r="AX25" s="51"/>
+      <c r="AY25" s="74"/>
     </row>
     <row r="26" spans="1:51" ht="12.75">
       <c r="A26" s="12" t="s">
@@ -2943,18 +3216,32 @@
       <c r="AK26" s="48"/>
       <c r="AL26" s="46"/>
       <c r="AM26" s="46"/>
-      <c r="AN26" s="94"/>
-      <c r="AO26" s="94"/>
-      <c r="AP26" s="48"/>
-      <c r="AQ26" s="48"/>
-      <c r="AR26" s="48"/>
-      <c r="AS26" s="48"/>
-      <c r="AT26" s="48"/>
-      <c r="AU26" s="95"/>
-      <c r="AV26" s="48"/>
-      <c r="AW26" s="48"/>
-      <c r="AX26" s="48"/>
-      <c r="AY26" s="95"/>
+      <c r="AN26" s="146" t="s">
+        <v>31</v>
+      </c>
+      <c r="AO26" s="126">
+        <v>30</v>
+      </c>
+      <c r="AP26" s="127">
+        <v>16</v>
+      </c>
+      <c r="AQ26" s="127">
+        <v>16</v>
+      </c>
+      <c r="AR26" s="127">
+        <v>26</v>
+      </c>
+      <c r="AS26" s="127">
+        <v>28</v>
+      </c>
+      <c r="AT26" s="127">
+        <v>32</v>
+      </c>
+      <c r="AU26" s="141"/>
+      <c r="AV26" s="147"/>
+      <c r="AW26" s="136"/>
+      <c r="AX26" s="136"/>
+      <c r="AY26" s="141"/>
     </row>
     <row r="27" spans="1:51" ht="12.75">
       <c r="A27" s="34"/>
@@ -3001,29 +3288,49 @@
       </c>
       <c r="AC27" s="48"/>
       <c r="AD27" s="48"/>
-      <c r="AE27" s="87"/>
+      <c r="AE27" s="84"/>
       <c r="AF27" s="48"/>
-      <c r="AG27" s="87"/>
-      <c r="AH27" s="87"/>
-      <c r="AI27" s="87"/>
-      <c r="AJ27" s="87"/>
-      <c r="AK27" s="87"/>
+      <c r="AG27" s="84"/>
+      <c r="AH27" s="84"/>
+      <c r="AI27" s="84"/>
+      <c r="AJ27" s="84"/>
+      <c r="AK27" s="84"/>
       <c r="AL27" s="46"/>
       <c r="AM27" s="46"/>
-      <c r="AN27" s="94" t="s">
+      <c r="AN27" s="129" t="s">
         <v>31</v>
       </c>
-      <c r="AO27" s="94"/>
-      <c r="AP27" s="48"/>
-      <c r="AQ27" s="48"/>
-      <c r="AR27" s="48"/>
-      <c r="AS27" s="48"/>
-      <c r="AT27" s="48"/>
-      <c r="AU27" s="95"/>
-      <c r="AV27" s="48"/>
-      <c r="AW27" s="48"/>
-      <c r="AX27" s="48"/>
-      <c r="AY27" s="95"/>
+      <c r="AO27" s="91">
+        <v>30</v>
+      </c>
+      <c r="AP27" s="48">
+        <v>16</v>
+      </c>
+      <c r="AQ27" s="48">
+        <v>16</v>
+      </c>
+      <c r="AR27" s="48">
+        <v>26</v>
+      </c>
+      <c r="AS27" s="48">
+        <v>28</v>
+      </c>
+      <c r="AT27" s="48">
+        <v>32</v>
+      </c>
+      <c r="AU27" s="70"/>
+      <c r="AV27" s="91">
+        <v>1</v>
+      </c>
+      <c r="AW27" s="89">
+        <v>3</v>
+      </c>
+      <c r="AX27" s="48">
+        <v>16</v>
+      </c>
+      <c r="AY27" s="92">
+        <v>26</v>
+      </c>
     </row>
     <row r="28" spans="1:51" ht="12.75">
       <c r="A28" s="31" t="s">
@@ -3071,18 +3378,40 @@
       <c r="AK28" s="48"/>
       <c r="AL28" s="46"/>
       <c r="AM28" s="46"/>
-      <c r="AN28" s="94"/>
-      <c r="AO28" s="94"/>
-      <c r="AP28" s="48"/>
-      <c r="AQ28" s="48"/>
-      <c r="AR28" s="48"/>
-      <c r="AS28" s="48"/>
-      <c r="AT28" s="48"/>
-      <c r="AU28" s="95"/>
-      <c r="AV28" s="48"/>
-      <c r="AW28" s="48"/>
-      <c r="AX28" s="48"/>
-      <c r="AY28" s="95"/>
+      <c r="AN28" s="129" t="s">
+        <v>31</v>
+      </c>
+      <c r="AO28" s="91">
+        <v>30</v>
+      </c>
+      <c r="AP28" s="48">
+        <v>16</v>
+      </c>
+      <c r="AQ28" s="48">
+        <v>16</v>
+      </c>
+      <c r="AR28" s="48">
+        <v>26</v>
+      </c>
+      <c r="AS28" s="48">
+        <v>28</v>
+      </c>
+      <c r="AT28" s="48">
+        <v>32</v>
+      </c>
+      <c r="AU28" s="70"/>
+      <c r="AV28" s="91">
+        <v>1</v>
+      </c>
+      <c r="AW28" s="89">
+        <v>4</v>
+      </c>
+      <c r="AX28" s="48">
+        <v>16</v>
+      </c>
+      <c r="AY28" s="92">
+        <v>28</v>
+      </c>
     </row>
     <row r="29" spans="1:51" ht="12.75">
       <c r="A29" s="31" t="s">
@@ -3134,30 +3463,50 @@
         <v>2</v>
       </c>
       <c r="AC29" s="48"/>
-      <c r="AD29" s="87"/>
+      <c r="AD29" s="84"/>
       <c r="AE29" s="48"/>
-      <c r="AF29" s="87"/>
+      <c r="AF29" s="84"/>
       <c r="AG29" s="48"/>
-      <c r="AH29" s="87"/>
-      <c r="AI29" s="87"/>
-      <c r="AJ29" s="87"/>
-      <c r="AK29" s="87"/>
+      <c r="AH29" s="84"/>
+      <c r="AI29" s="84"/>
+      <c r="AJ29" s="84"/>
+      <c r="AK29" s="84"/>
       <c r="AL29" s="46"/>
       <c r="AM29" s="46"/>
-      <c r="AN29" s="94" t="s">
+      <c r="AN29" s="129" t="s">
         <v>31</v>
       </c>
-      <c r="AO29" s="94"/>
-      <c r="AP29" s="48"/>
-      <c r="AQ29" s="48"/>
-      <c r="AR29" s="48"/>
-      <c r="AS29" s="48"/>
-      <c r="AT29" s="48"/>
-      <c r="AU29" s="95"/>
-      <c r="AV29" s="48"/>
-      <c r="AW29" s="48"/>
-      <c r="AX29" s="48"/>
-      <c r="AY29" s="95"/>
+      <c r="AO29" s="91">
+        <v>30</v>
+      </c>
+      <c r="AP29" s="48">
+        <v>16</v>
+      </c>
+      <c r="AQ29" s="48">
+        <v>16</v>
+      </c>
+      <c r="AR29" s="48">
+        <v>26</v>
+      </c>
+      <c r="AS29" s="48">
+        <v>28</v>
+      </c>
+      <c r="AT29" s="48">
+        <v>32</v>
+      </c>
+      <c r="AU29" s="70"/>
+      <c r="AV29" s="91">
+        <v>1</v>
+      </c>
+      <c r="AW29" s="89">
+        <v>5</v>
+      </c>
+      <c r="AX29" s="48">
+        <v>16</v>
+      </c>
+      <c r="AY29" s="92">
+        <v>32</v>
+      </c>
     </row>
     <row r="30" spans="1:51" ht="12.75">
       <c r="A30" s="34"/>
@@ -3201,18 +3550,40 @@
       <c r="AK30" s="48"/>
       <c r="AL30" s="46"/>
       <c r="AM30" s="46"/>
-      <c r="AN30" s="94"/>
-      <c r="AO30" s="94"/>
-      <c r="AP30" s="48"/>
-      <c r="AQ30" s="48"/>
-      <c r="AR30" s="48"/>
-      <c r="AS30" s="48"/>
-      <c r="AT30" s="48"/>
-      <c r="AU30" s="95"/>
-      <c r="AV30" s="48"/>
-      <c r="AW30" s="48"/>
-      <c r="AX30" s="48"/>
-      <c r="AY30" s="129"/>
+      <c r="AN30" s="130" t="s">
+        <v>31</v>
+      </c>
+      <c r="AO30" s="93">
+        <v>30</v>
+      </c>
+      <c r="AP30" s="94">
+        <v>16</v>
+      </c>
+      <c r="AQ30" s="94">
+        <v>16</v>
+      </c>
+      <c r="AR30" s="94">
+        <v>26</v>
+      </c>
+      <c r="AS30" s="94">
+        <v>28</v>
+      </c>
+      <c r="AT30" s="94">
+        <v>32</v>
+      </c>
+      <c r="AU30" s="135"/>
+      <c r="AV30" s="93">
+        <v>1</v>
+      </c>
+      <c r="AW30" s="101">
+        <v>6</v>
+      </c>
+      <c r="AX30" s="94">
+        <v>16</v>
+      </c>
+      <c r="AY30" s="95" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="31" spans="1:51" ht="12.75">
       <c r="A31" s="31" t="s">
@@ -3262,30 +3633,28 @@
         <v>2</v>
       </c>
       <c r="AC31" s="48"/>
-      <c r="AD31" s="87"/>
-      <c r="AE31" s="87"/>
+      <c r="AD31" s="84"/>
+      <c r="AE31" s="84"/>
       <c r="AF31" s="48"/>
-      <c r="AG31" s="87"/>
+      <c r="AG31" s="84"/>
       <c r="AH31" s="48"/>
-      <c r="AI31" s="87"/>
-      <c r="AJ31" s="87"/>
-      <c r="AK31" s="87"/>
+      <c r="AI31" s="84"/>
+      <c r="AJ31" s="84"/>
+      <c r="AK31" s="84"/>
       <c r="AL31" s="46"/>
       <c r="AM31" s="46"/>
-      <c r="AN31" s="94" t="s">
-        <v>31</v>
-      </c>
-      <c r="AO31" s="94"/>
-      <c r="AP31" s="48"/>
-      <c r="AQ31" s="48"/>
-      <c r="AR31" s="48"/>
-      <c r="AS31" s="48"/>
-      <c r="AT31" s="48"/>
-      <c r="AU31" s="95"/>
-      <c r="AV31" s="48"/>
-      <c r="AW31" s="48"/>
-      <c r="AX31" s="48"/>
-      <c r="AY31" s="95"/>
+      <c r="AN31" s="139"/>
+      <c r="AO31" s="50"/>
+      <c r="AP31" s="51"/>
+      <c r="AQ31" s="51"/>
+      <c r="AR31" s="51"/>
+      <c r="AS31" s="51"/>
+      <c r="AT31" s="51"/>
+      <c r="AU31" s="74"/>
+      <c r="AV31" s="50"/>
+      <c r="AW31" s="51"/>
+      <c r="AX31" s="51"/>
+      <c r="AY31" s="74"/>
     </row>
     <row r="32" spans="1:51" ht="12.75">
       <c r="A32" s="31" t="s">
@@ -3335,18 +3704,26 @@
       <c r="AK32" s="48"/>
       <c r="AL32" s="46"/>
       <c r="AM32" s="46"/>
-      <c r="AN32" s="94"/>
-      <c r="AO32" s="94"/>
-      <c r="AP32" s="48"/>
-      <c r="AQ32" s="48"/>
-      <c r="AR32" s="48"/>
-      <c r="AS32" s="48"/>
-      <c r="AT32" s="48"/>
-      <c r="AU32" s="95"/>
-      <c r="AV32" s="48"/>
-      <c r="AW32" s="48"/>
-      <c r="AX32" s="48"/>
-      <c r="AY32" s="129"/>
+      <c r="AN32" s="139"/>
+      <c r="AO32" s="50"/>
+      <c r="AP32" s="51"/>
+      <c r="AQ32" s="51"/>
+      <c r="AR32" s="51"/>
+      <c r="AS32" s="51"/>
+      <c r="AT32" s="51"/>
+      <c r="AU32" s="74"/>
+      <c r="AV32" s="91">
+        <v>0</v>
+      </c>
+      <c r="AW32" s="89">
+        <v>1</v>
+      </c>
+      <c r="AX32" s="84">
+        <v>30</v>
+      </c>
+      <c r="AY32" s="131">
+        <v>16</v>
+      </c>
     </row>
     <row r="33" spans="1:51" ht="12.75">
       <c r="A33" s="35"/>
@@ -3392,30 +3769,34 @@
         <v>2</v>
       </c>
       <c r="AC33" s="48"/>
-      <c r="AD33" s="87"/>
-      <c r="AE33" s="87"/>
-      <c r="AF33" s="87"/>
+      <c r="AD33" s="84"/>
+      <c r="AE33" s="84"/>
+      <c r="AF33" s="84"/>
       <c r="AG33" s="48"/>
-      <c r="AH33" s="87"/>
+      <c r="AH33" s="84"/>
       <c r="AI33" s="48"/>
-      <c r="AJ33" s="87"/>
-      <c r="AK33" s="87"/>
+      <c r="AJ33" s="84"/>
+      <c r="AK33" s="84"/>
       <c r="AL33" s="46"/>
-      <c r="AM33" s="89"/>
-      <c r="AN33" s="94" t="s">
-        <v>31</v>
-      </c>
-      <c r="AO33" s="94"/>
-      <c r="AP33" s="48"/>
-      <c r="AQ33" s="48"/>
-      <c r="AR33" s="48"/>
-      <c r="AS33" s="48"/>
-      <c r="AT33" s="48"/>
-      <c r="AU33" s="95"/>
-      <c r="AV33" s="48"/>
-      <c r="AW33" s="48"/>
-      <c r="AX33" s="89"/>
-      <c r="AY33" s="95"/>
+      <c r="AM33" s="86"/>
+      <c r="AN33" s="145" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO33" s="96">
+        <v>30</v>
+      </c>
+      <c r="AP33" s="97">
+        <v>16</v>
+      </c>
+      <c r="AQ33" s="132"/>
+      <c r="AR33" s="132"/>
+      <c r="AS33" s="132"/>
+      <c r="AT33" s="132"/>
+      <c r="AU33" s="134"/>
+      <c r="AV33" s="71"/>
+      <c r="AW33" s="68"/>
+      <c r="AX33" s="68"/>
+      <c r="AY33" s="70"/>
     </row>
     <row r="34" spans="1:51" ht="12.75">
       <c r="A34" s="31" t="s">
@@ -3463,18 +3844,32 @@
       <c r="AK34" s="45"/>
       <c r="AL34" s="45"/>
       <c r="AM34" s="45"/>
-      <c r="AN34" s="126"/>
-      <c r="AO34" s="94"/>
-      <c r="AP34" s="48"/>
-      <c r="AQ34" s="48"/>
-      <c r="AR34" s="48"/>
-      <c r="AS34" s="48"/>
-      <c r="AT34" s="48"/>
-      <c r="AU34" s="95"/>
-      <c r="AV34" s="48"/>
-      <c r="AW34" s="48"/>
-      <c r="AX34" s="48"/>
-      <c r="AY34" s="95"/>
+      <c r="AN34" s="129" t="s">
+        <v>31</v>
+      </c>
+      <c r="AO34" s="125">
+        <v>16</v>
+      </c>
+      <c r="AP34" s="84">
+        <v>30</v>
+      </c>
+      <c r="AQ34" s="48">
+        <v>16</v>
+      </c>
+      <c r="AR34" s="48">
+        <v>26</v>
+      </c>
+      <c r="AS34" s="48">
+        <v>28</v>
+      </c>
+      <c r="AT34" s="48">
+        <v>32</v>
+      </c>
+      <c r="AU34" s="70"/>
+      <c r="AV34" s="71"/>
+      <c r="AW34" s="68"/>
+      <c r="AX34" s="68"/>
+      <c r="AY34" s="70"/>
     </row>
     <row r="35" spans="1:51" ht="12.75">
       <c r="A35" s="31" t="s">
@@ -3526,30 +3921,36 @@
         <v>2</v>
       </c>
       <c r="AC35" s="48"/>
-      <c r="AD35" s="87"/>
-      <c r="AE35" s="87"/>
-      <c r="AF35" s="87"/>
-      <c r="AG35" s="87"/>
+      <c r="AD35" s="84"/>
+      <c r="AE35" s="84"/>
+      <c r="AF35" s="84"/>
+      <c r="AG35" s="84"/>
       <c r="AH35" s="48"/>
-      <c r="AI35" s="87"/>
+      <c r="AI35" s="84"/>
       <c r="AJ35" s="48"/>
-      <c r="AK35" s="87"/>
+      <c r="AK35" s="84"/>
       <c r="AL35" s="46"/>
       <c r="AM35" s="46"/>
-      <c r="AN35" s="94" t="s">
-        <v>31</v>
-      </c>
-      <c r="AO35" s="94"/>
-      <c r="AP35" s="48"/>
-      <c r="AQ35" s="48"/>
-      <c r="AR35" s="48"/>
-      <c r="AS35" s="48"/>
-      <c r="AT35" s="48"/>
-      <c r="AU35" s="95"/>
-      <c r="AV35" s="48"/>
-      <c r="AW35" s="48"/>
-      <c r="AX35" s="48"/>
-      <c r="AY35" s="95"/>
+      <c r="AN35" s="139"/>
+      <c r="AO35" s="50"/>
+      <c r="AP35" s="51"/>
+      <c r="AQ35" s="51"/>
+      <c r="AR35" s="51"/>
+      <c r="AS35" s="51"/>
+      <c r="AT35" s="51"/>
+      <c r="AU35" s="74"/>
+      <c r="AV35" s="91">
+        <v>0</v>
+      </c>
+      <c r="AW35" s="89">
+        <v>2</v>
+      </c>
+      <c r="AX35" s="84">
+        <v>30</v>
+      </c>
+      <c r="AY35" s="131">
+        <v>16</v>
+      </c>
     </row>
     <row r="36" spans="1:51" ht="12.75">
       <c r="A36" s="31" t="s">
@@ -3601,18 +4002,24 @@
       <c r="AK36" s="48"/>
       <c r="AL36" s="46"/>
       <c r="AM36" s="46"/>
-      <c r="AN36" s="94"/>
-      <c r="AO36" s="94"/>
-      <c r="AP36" s="48"/>
-      <c r="AQ36" s="48"/>
-      <c r="AR36" s="48"/>
-      <c r="AS36" s="48"/>
-      <c r="AT36" s="48"/>
-      <c r="AU36" s="95"/>
-      <c r="AV36" s="48"/>
-      <c r="AW36" s="48"/>
-      <c r="AX36" s="48"/>
-      <c r="AY36" s="95"/>
+      <c r="AN36" s="145" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO36" s="133"/>
+      <c r="AP36" s="97">
+        <v>30</v>
+      </c>
+      <c r="AQ36" s="97">
+        <v>16</v>
+      </c>
+      <c r="AR36" s="132"/>
+      <c r="AS36" s="132"/>
+      <c r="AT36" s="132"/>
+      <c r="AU36" s="134"/>
+      <c r="AV36" s="71"/>
+      <c r="AW36" s="68"/>
+      <c r="AX36" s="68"/>
+      <c r="AY36" s="70"/>
     </row>
     <row r="37" spans="1:51" ht="12.75">
       <c r="A37" s="31" t="s">
@@ -3668,30 +4075,42 @@
         <v>2</v>
       </c>
       <c r="AC37" s="48"/>
-      <c r="AD37" s="87"/>
-      <c r="AE37" s="87"/>
-      <c r="AF37" s="87"/>
-      <c r="AG37" s="87"/>
-      <c r="AH37" s="87"/>
+      <c r="AD37" s="84"/>
+      <c r="AE37" s="84"/>
+      <c r="AF37" s="84"/>
+      <c r="AG37" s="84"/>
+      <c r="AH37" s="84"/>
       <c r="AI37" s="48"/>
-      <c r="AJ37" s="87"/>
+      <c r="AJ37" s="84"/>
       <c r="AK37" s="48"/>
       <c r="AL37" s="46"/>
       <c r="AM37" s="46"/>
-      <c r="AN37" s="94" t="s">
+      <c r="AN37" s="129" t="s">
         <v>31</v>
       </c>
-      <c r="AO37" s="94"/>
-      <c r="AP37" s="48"/>
-      <c r="AQ37" s="48"/>
-      <c r="AR37" s="48"/>
-      <c r="AS37" s="48"/>
-      <c r="AT37" s="48"/>
-      <c r="AU37" s="95"/>
-      <c r="AV37" s="48"/>
-      <c r="AW37" s="48"/>
-      <c r="AX37" s="48"/>
-      <c r="AY37" s="95"/>
+      <c r="AO37" s="91">
+        <v>16</v>
+      </c>
+      <c r="AP37" s="84">
+        <v>16</v>
+      </c>
+      <c r="AQ37" s="84">
+        <v>30</v>
+      </c>
+      <c r="AR37" s="48">
+        <v>26</v>
+      </c>
+      <c r="AS37" s="48">
+        <v>28</v>
+      </c>
+      <c r="AT37" s="48">
+        <v>32</v>
+      </c>
+      <c r="AU37" s="70"/>
+      <c r="AV37" s="71"/>
+      <c r="AW37" s="68"/>
+      <c r="AX37" s="68"/>
+      <c r="AY37" s="70"/>
     </row>
     <row r="38" spans="1:51" ht="12.75">
       <c r="A38" s="36"/>
@@ -3729,18 +4148,26 @@
       <c r="AK38" s="48"/>
       <c r="AL38" s="46"/>
       <c r="AM38" s="46"/>
-      <c r="AN38" s="94"/>
-      <c r="AO38" s="94"/>
-      <c r="AP38" s="48"/>
-      <c r="AQ38" s="48"/>
-      <c r="AR38" s="48"/>
-      <c r="AS38" s="48"/>
-      <c r="AT38" s="48"/>
-      <c r="AU38" s="95"/>
-      <c r="AV38" s="48"/>
-      <c r="AW38" s="48"/>
-      <c r="AX38" s="48"/>
-      <c r="AY38" s="95"/>
+      <c r="AN38" s="139"/>
+      <c r="AO38" s="50"/>
+      <c r="AP38" s="51"/>
+      <c r="AQ38" s="51"/>
+      <c r="AR38" s="51"/>
+      <c r="AS38" s="51"/>
+      <c r="AT38" s="51"/>
+      <c r="AU38" s="74"/>
+      <c r="AV38" s="91">
+        <v>0</v>
+      </c>
+      <c r="AW38" s="89">
+        <v>3</v>
+      </c>
+      <c r="AX38" s="84">
+        <v>30</v>
+      </c>
+      <c r="AY38" s="131">
+        <v>26</v>
+      </c>
     </row>
     <row r="39" spans="1:51" ht="12.75">
       <c r="A39" s="34"/>
@@ -3791,31 +4218,35 @@
       <c r="X39" s="68"/>
       <c r="Y39" s="68"/>
       <c r="Z39" s="70"/>
-      <c r="AC39" s="87"/>
-      <c r="AD39" s="87"/>
-      <c r="AE39" s="87"/>
-      <c r="AF39" s="87"/>
-      <c r="AG39" s="87"/>
-      <c r="AH39" s="87"/>
-      <c r="AI39" s="87"/>
-      <c r="AJ39" s="87"/>
-      <c r="AK39" s="87"/>
-      <c r="AL39" s="87"/>
-      <c r="AM39" s="87"/>
-      <c r="AN39" s="106" t="s">
-        <v>31</v>
-      </c>
-      <c r="AO39" s="94"/>
-      <c r="AP39" s="48"/>
-      <c r="AQ39" s="48"/>
-      <c r="AR39" s="48"/>
-      <c r="AS39" s="48"/>
-      <c r="AT39" s="48"/>
-      <c r="AU39" s="95"/>
-      <c r="AV39" s="48"/>
-      <c r="AW39" s="48"/>
-      <c r="AX39" s="48"/>
-      <c r="AY39" s="95"/>
+      <c r="AC39" s="84"/>
+      <c r="AD39" s="84"/>
+      <c r="AE39" s="84"/>
+      <c r="AF39" s="84"/>
+      <c r="AG39" s="84"/>
+      <c r="AH39" s="84"/>
+      <c r="AI39" s="84"/>
+      <c r="AJ39" s="84"/>
+      <c r="AK39" s="84"/>
+      <c r="AL39" s="84"/>
+      <c r="AM39" s="84"/>
+      <c r="AN39" s="145" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO39" s="133"/>
+      <c r="AP39" s="132"/>
+      <c r="AQ39" s="97">
+        <v>30</v>
+      </c>
+      <c r="AR39" s="97">
+        <v>26</v>
+      </c>
+      <c r="AS39" s="132"/>
+      <c r="AT39" s="132"/>
+      <c r="AU39" s="134"/>
+      <c r="AV39" s="71"/>
+      <c r="AW39" s="68"/>
+      <c r="AX39" s="68"/>
+      <c r="AY39" s="70"/>
     </row>
     <row r="40" spans="1:51" ht="12.75">
       <c r="A40" s="31" t="s">
@@ -3863,18 +4294,32 @@
       <c r="AK40" s="48"/>
       <c r="AL40" s="46"/>
       <c r="AM40" s="46"/>
-      <c r="AN40" s="94"/>
-      <c r="AO40" s="94"/>
-      <c r="AP40" s="48"/>
-      <c r="AQ40" s="48"/>
-      <c r="AR40" s="48"/>
-      <c r="AS40" s="48"/>
-      <c r="AT40" s="48"/>
-      <c r="AU40" s="95"/>
-      <c r="AV40" s="48"/>
-      <c r="AW40" s="48"/>
-      <c r="AX40" s="48"/>
-      <c r="AY40" s="129"/>
+      <c r="AN40" s="129" t="s">
+        <v>31</v>
+      </c>
+      <c r="AO40" s="91">
+        <v>16</v>
+      </c>
+      <c r="AP40" s="48">
+        <v>16</v>
+      </c>
+      <c r="AQ40" s="84">
+        <v>26</v>
+      </c>
+      <c r="AR40" s="84">
+        <v>30</v>
+      </c>
+      <c r="AS40" s="48">
+        <v>28</v>
+      </c>
+      <c r="AT40" s="48">
+        <v>32</v>
+      </c>
+      <c r="AU40" s="70"/>
+      <c r="AV40" s="71"/>
+      <c r="AW40" s="68"/>
+      <c r="AX40" s="68"/>
+      <c r="AY40" s="70"/>
     </row>
     <row r="41" spans="1:51" ht="12.75">
       <c r="A41" s="31" t="s">
@@ -3928,28 +4373,34 @@
       <c r="AC41" s="48"/>
       <c r="AD41" s="48"/>
       <c r="AE41" s="48"/>
-      <c r="AF41" s="87"/>
-      <c r="AG41" s="87"/>
-      <c r="AH41" s="87"/>
-      <c r="AI41" s="87"/>
-      <c r="AJ41" s="87"/>
-      <c r="AK41" s="87"/>
-      <c r="AL41" s="90"/>
-      <c r="AM41" s="90"/>
-      <c r="AN41" s="94" t="s">
-        <v>31</v>
-      </c>
-      <c r="AO41" s="94"/>
-      <c r="AP41" s="48"/>
-      <c r="AQ41" s="48"/>
-      <c r="AR41" s="48"/>
-      <c r="AS41" s="48"/>
-      <c r="AT41" s="48"/>
-      <c r="AU41" s="95"/>
-      <c r="AV41" s="48"/>
-      <c r="AW41" s="48"/>
-      <c r="AX41" s="48"/>
-      <c r="AY41" s="95"/>
+      <c r="AF41" s="84"/>
+      <c r="AG41" s="84"/>
+      <c r="AH41" s="84"/>
+      <c r="AI41" s="84"/>
+      <c r="AJ41" s="84"/>
+      <c r="AK41" s="84"/>
+      <c r="AL41" s="87"/>
+      <c r="AM41" s="87"/>
+      <c r="AN41" s="139"/>
+      <c r="AO41" s="50"/>
+      <c r="AP41" s="51"/>
+      <c r="AQ41" s="51"/>
+      <c r="AR41" s="51"/>
+      <c r="AS41" s="51"/>
+      <c r="AT41" s="51"/>
+      <c r="AU41" s="74"/>
+      <c r="AV41" s="91">
+        <v>0</v>
+      </c>
+      <c r="AW41" s="89">
+        <v>4</v>
+      </c>
+      <c r="AX41" s="84">
+        <v>30</v>
+      </c>
+      <c r="AY41" s="131">
+        <v>28</v>
+      </c>
     </row>
     <row r="42" spans="1:51" ht="12.75">
       <c r="A42" s="35"/>
@@ -3983,28 +4434,34 @@
       <c r="Y42" s="64"/>
       <c r="Z42" s="65"/>
       <c r="AC42" s="48"/>
-      <c r="AD42" s="91"/>
-      <c r="AE42" s="91"/>
-      <c r="AF42" s="91"/>
-      <c r="AG42" s="91"/>
-      <c r="AH42" s="91"/>
-      <c r="AI42" s="91"/>
-      <c r="AJ42" s="91"/>
-      <c r="AK42" s="91"/>
-      <c r="AL42" s="90"/>
-      <c r="AM42" s="90"/>
-      <c r="AN42" s="94"/>
-      <c r="AO42" s="126"/>
-      <c r="AP42" s="127"/>
-      <c r="AQ42" s="127"/>
-      <c r="AR42" s="127"/>
-      <c r="AS42" s="127"/>
-      <c r="AT42" s="127"/>
-      <c r="AU42" s="128"/>
-      <c r="AV42" s="127"/>
-      <c r="AW42" s="48"/>
-      <c r="AX42" s="48"/>
-      <c r="AY42" s="95"/>
+      <c r="AD42" s="88"/>
+      <c r="AE42" s="88"/>
+      <c r="AF42" s="88"/>
+      <c r="AG42" s="88"/>
+      <c r="AH42" s="88"/>
+      <c r="AI42" s="88"/>
+      <c r="AJ42" s="88"/>
+      <c r="AK42" s="88"/>
+      <c r="AL42" s="87"/>
+      <c r="AM42" s="87"/>
+      <c r="AN42" s="145" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO42" s="133"/>
+      <c r="AP42" s="132"/>
+      <c r="AQ42" s="132"/>
+      <c r="AR42" s="97">
+        <v>30</v>
+      </c>
+      <c r="AS42" s="97">
+        <v>28</v>
+      </c>
+      <c r="AT42" s="132"/>
+      <c r="AU42" s="134"/>
+      <c r="AV42" s="71"/>
+      <c r="AW42" s="68"/>
+      <c r="AX42" s="68"/>
+      <c r="AY42" s="70"/>
     </row>
     <row r="43" spans="1:51" ht="12.75">
       <c r="A43" s="31" t="s">
@@ -4054,30 +4511,42 @@
         <v>1</v>
       </c>
       <c r="AC43" s="48"/>
-      <c r="AD43" s="87"/>
+      <c r="AD43" s="84"/>
       <c r="AE43" s="48"/>
       <c r="AF43" s="48"/>
-      <c r="AG43" s="87"/>
-      <c r="AH43" s="87"/>
-      <c r="AI43" s="87"/>
-      <c r="AJ43" s="87"/>
-      <c r="AK43" s="87"/>
-      <c r="AL43" s="90"/>
+      <c r="AG43" s="84"/>
+      <c r="AH43" s="84"/>
+      <c r="AI43" s="84"/>
+      <c r="AJ43" s="84"/>
+      <c r="AK43" s="84"/>
+      <c r="AL43" s="87"/>
       <c r="AM43" s="48"/>
-      <c r="AN43" s="94" t="s">
+      <c r="AN43" s="129" t="s">
         <v>31</v>
       </c>
-      <c r="AO43" s="94"/>
-      <c r="AP43" s="48"/>
-      <c r="AQ43" s="48"/>
-      <c r="AR43" s="48"/>
-      <c r="AS43" s="48"/>
-      <c r="AT43" s="48"/>
-      <c r="AU43" s="95"/>
-      <c r="AV43" s="48"/>
-      <c r="AW43" s="48"/>
-      <c r="AX43" s="48"/>
-      <c r="AY43" s="95"/>
+      <c r="AO43" s="91">
+        <v>16</v>
+      </c>
+      <c r="AP43" s="48">
+        <v>16</v>
+      </c>
+      <c r="AQ43" s="48">
+        <v>26</v>
+      </c>
+      <c r="AR43" s="84">
+        <v>28</v>
+      </c>
+      <c r="AS43" s="84">
+        <v>30</v>
+      </c>
+      <c r="AT43" s="48">
+        <v>32</v>
+      </c>
+      <c r="AU43" s="70"/>
+      <c r="AV43" s="71"/>
+      <c r="AW43" s="68"/>
+      <c r="AX43" s="68"/>
+      <c r="AY43" s="70"/>
     </row>
     <row r="44" spans="1:51" ht="12.75">
       <c r="A44" s="31" t="s">
@@ -4116,7 +4585,7 @@
       <c r="X44" s="63"/>
       <c r="Y44" s="63"/>
       <c r="Z44" s="67"/>
-      <c r="AC44" s="91"/>
+      <c r="AC44" s="88"/>
       <c r="AD44" s="48"/>
       <c r="AE44" s="48"/>
       <c r="AF44" s="48"/>
@@ -4125,20 +4594,28 @@
       <c r="AI44" s="48"/>
       <c r="AJ44" s="48"/>
       <c r="AK44" s="48"/>
-      <c r="AL44" s="91"/>
-      <c r="AM44" s="91"/>
-      <c r="AN44" s="126"/>
-      <c r="AO44" s="94"/>
-      <c r="AP44" s="48"/>
-      <c r="AQ44" s="48"/>
-      <c r="AR44" s="48"/>
-      <c r="AS44" s="48"/>
-      <c r="AT44" s="48"/>
-      <c r="AU44" s="95"/>
-      <c r="AV44" s="48"/>
-      <c r="AW44" s="127"/>
-      <c r="AX44" s="127"/>
-      <c r="AY44" s="128"/>
+      <c r="AL44" s="88"/>
+      <c r="AM44" s="88"/>
+      <c r="AN44" s="139"/>
+      <c r="AO44" s="50"/>
+      <c r="AP44" s="51"/>
+      <c r="AQ44" s="51"/>
+      <c r="AR44" s="51"/>
+      <c r="AS44" s="51"/>
+      <c r="AT44" s="51"/>
+      <c r="AU44" s="74"/>
+      <c r="AV44" s="91">
+        <v>0</v>
+      </c>
+      <c r="AW44" s="89">
+        <v>5</v>
+      </c>
+      <c r="AX44" s="48">
+        <v>30</v>
+      </c>
+      <c r="AY44" s="92">
+        <v>32</v>
+      </c>
     </row>
     <row r="45" spans="1:51" ht="12.75">
       <c r="A45" s="35"/>
@@ -4184,30 +4661,42 @@
         <v>1</v>
       </c>
       <c r="AC45" s="48"/>
-      <c r="AD45" s="87"/>
-      <c r="AE45" s="87"/>
+      <c r="AD45" s="84"/>
+      <c r="AE45" s="84"/>
       <c r="AF45" s="48"/>
       <c r="AG45" s="48"/>
-      <c r="AH45" s="87"/>
-      <c r="AI45" s="87"/>
-      <c r="AJ45" s="87"/>
-      <c r="AK45" s="87"/>
-      <c r="AL45" s="90"/>
-      <c r="AM45" s="90"/>
-      <c r="AN45" s="94" t="s">
+      <c r="AH45" s="84"/>
+      <c r="AI45" s="84"/>
+      <c r="AJ45" s="84"/>
+      <c r="AK45" s="84"/>
+      <c r="AL45" s="87"/>
+      <c r="AM45" s="87"/>
+      <c r="AN45" s="129" t="s">
         <v>31</v>
       </c>
-      <c r="AO45" s="94"/>
-      <c r="AP45" s="48"/>
-      <c r="AQ45" s="48"/>
-      <c r="AR45" s="48"/>
-      <c r="AS45" s="48"/>
-      <c r="AT45" s="48"/>
-      <c r="AU45" s="95"/>
-      <c r="AV45" s="48"/>
-      <c r="AW45" s="48"/>
-      <c r="AX45" s="48"/>
-      <c r="AY45" s="95"/>
+      <c r="AO45" s="91">
+        <v>16</v>
+      </c>
+      <c r="AP45" s="48">
+        <v>16</v>
+      </c>
+      <c r="AQ45" s="48">
+        <v>26</v>
+      </c>
+      <c r="AR45" s="48">
+        <v>28</v>
+      </c>
+      <c r="AS45" s="48">
+        <v>30</v>
+      </c>
+      <c r="AT45" s="48">
+        <v>32</v>
+      </c>
+      <c r="AU45" s="70"/>
+      <c r="AV45" s="71"/>
+      <c r="AW45" s="68"/>
+      <c r="AX45" s="68"/>
+      <c r="AY45" s="70"/>
     </row>
     <row r="46" spans="1:51" ht="12.75">
       <c r="A46" s="31" t="s">
@@ -4253,20 +4742,28 @@
       <c r="AI46" s="48"/>
       <c r="AJ46" s="48"/>
       <c r="AK46" s="48"/>
-      <c r="AL46" s="90"/>
-      <c r="AM46" s="90"/>
-      <c r="AN46" s="94"/>
-      <c r="AO46" s="94"/>
-      <c r="AP46" s="48"/>
-      <c r="AQ46" s="48"/>
-      <c r="AR46" s="48"/>
-      <c r="AS46" s="48"/>
-      <c r="AT46" s="48"/>
-      <c r="AU46" s="95"/>
-      <c r="AV46" s="48"/>
-      <c r="AW46" s="48"/>
-      <c r="AX46" s="48"/>
-      <c r="AY46" s="95"/>
+      <c r="AL46" s="87"/>
+      <c r="AM46" s="87"/>
+      <c r="AN46" s="139"/>
+      <c r="AO46" s="50"/>
+      <c r="AP46" s="51"/>
+      <c r="AQ46" s="51"/>
+      <c r="AR46" s="51"/>
+      <c r="AS46" s="51"/>
+      <c r="AT46" s="51"/>
+      <c r="AU46" s="74"/>
+      <c r="AV46" s="91">
+        <v>0</v>
+      </c>
+      <c r="AW46" s="48">
+        <v>6</v>
+      </c>
+      <c r="AX46" s="48">
+        <v>30</v>
+      </c>
+      <c r="AY46" s="92" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="47" spans="1:51" ht="12.75">
       <c r="A47" s="31" t="s">
@@ -4318,32 +4815,44 @@
         <v>1</v>
       </c>
       <c r="AC47" s="48"/>
-      <c r="AD47" s="87"/>
-      <c r="AE47" s="87"/>
-      <c r="AF47" s="87"/>
+      <c r="AD47" s="84"/>
+      <c r="AE47" s="84"/>
+      <c r="AF47" s="84"/>
       <c r="AG47" s="48"/>
       <c r="AH47" s="48"/>
-      <c r="AI47" s="87"/>
-      <c r="AJ47" s="87"/>
-      <c r="AK47" s="87"/>
-      <c r="AL47" s="90"/>
-      <c r="AM47" s="90"/>
-      <c r="AN47" s="94" t="s">
+      <c r="AI47" s="84"/>
+      <c r="AJ47" s="84"/>
+      <c r="AK47" s="84"/>
+      <c r="AL47" s="87"/>
+      <c r="AM47" s="87"/>
+      <c r="AN47" s="129" t="s">
         <v>31</v>
       </c>
-      <c r="AO47" s="94"/>
-      <c r="AP47" s="48"/>
-      <c r="AQ47" s="48"/>
-      <c r="AR47" s="48"/>
-      <c r="AS47" s="48"/>
-      <c r="AT47" s="48"/>
-      <c r="AU47" s="95"/>
-      <c r="AV47" s="48"/>
-      <c r="AW47" s="48"/>
-      <c r="AX47" s="48"/>
-      <c r="AY47" s="95"/>
-    </row>
-    <row r="48" spans="1:51" ht="12.75">
+      <c r="AO47" s="93">
+        <v>16</v>
+      </c>
+      <c r="AP47" s="94">
+        <v>16</v>
+      </c>
+      <c r="AQ47" s="94">
+        <v>26</v>
+      </c>
+      <c r="AR47" s="94">
+        <v>28</v>
+      </c>
+      <c r="AS47" s="94">
+        <v>30</v>
+      </c>
+      <c r="AT47" s="94">
+        <v>32</v>
+      </c>
+      <c r="AU47" s="135"/>
+      <c r="AV47" s="142"/>
+      <c r="AW47" s="143"/>
+      <c r="AX47" s="143"/>
+      <c r="AY47" s="135"/>
+    </row>
+    <row r="48" spans="1:51" ht="25.5">
       <c r="A48" s="31" t="s">
         <v>35</v>
       </c>
@@ -4391,19 +4900,23 @@
       <c r="AI48" s="48"/>
       <c r="AJ48" s="48"/>
       <c r="AK48" s="48"/>
-      <c r="AL48" s="90"/>
-      <c r="AM48" s="90"/>
-      <c r="AN48" s="94"/>
-      <c r="AO48" s="94"/>
-      <c r="AP48" s="48"/>
-      <c r="AQ48" s="48"/>
-      <c r="AR48" s="48"/>
-      <c r="AS48" s="48"/>
-      <c r="AT48" s="48"/>
-      <c r="AU48" s="95"/>
-      <c r="AV48" s="48"/>
-      <c r="AW48" s="48"/>
-      <c r="AX48" s="48"/>
+      <c r="AL48" s="87"/>
+      <c r="AM48" s="87"/>
+      <c r="AN48" s="144" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO48" s="94">
+        <v>15</v>
+      </c>
+      <c r="AP48" s="94"/>
+      <c r="AQ48" s="94"/>
+      <c r="AR48" s="94"/>
+      <c r="AS48" s="94"/>
+      <c r="AT48" s="94"/>
+      <c r="AU48" s="94"/>
+      <c r="AV48" s="94"/>
+      <c r="AW48" s="94"/>
+      <c r="AX48" s="94"/>
       <c r="AY48" s="95"/>
     </row>
     <row r="49" spans="1:51" ht="12.75">
@@ -4460,30 +4973,28 @@
         <v>1</v>
       </c>
       <c r="AC49" s="48"/>
-      <c r="AD49" s="87"/>
-      <c r="AE49" s="87"/>
-      <c r="AF49" s="87"/>
-      <c r="AG49" s="87"/>
+      <c r="AD49" s="84"/>
+      <c r="AE49" s="84"/>
+      <c r="AF49" s="84"/>
+      <c r="AG49" s="84"/>
       <c r="AH49" s="48"/>
       <c r="AI49" s="48"/>
-      <c r="AJ49" s="87"/>
-      <c r="AK49" s="87"/>
-      <c r="AL49" s="90"/>
-      <c r="AM49" s="90"/>
-      <c r="AN49" s="94" t="s">
-        <v>31</v>
-      </c>
-      <c r="AO49" s="94"/>
+      <c r="AJ49" s="84"/>
+      <c r="AK49" s="84"/>
+      <c r="AL49" s="87"/>
+      <c r="AM49" s="87"/>
+      <c r="AN49" s="48"/>
+      <c r="AO49" s="48"/>
       <c r="AP49" s="48"/>
       <c r="AQ49" s="48"/>
       <c r="AR49" s="48"/>
       <c r="AS49" s="48"/>
       <c r="AT49" s="48"/>
-      <c r="AU49" s="95"/>
+      <c r="AU49" s="48"/>
       <c r="AV49" s="48"/>
       <c r="AW49" s="48"/>
       <c r="AX49" s="48"/>
-      <c r="AY49" s="95"/>
+      <c r="AY49" s="48"/>
     </row>
     <row r="50" spans="1:51" ht="12.75">
       <c r="A50" s="37"/>
@@ -4511,28 +5022,28 @@
       <c r="Y50" s="64"/>
       <c r="Z50" s="65"/>
       <c r="AC50" s="48"/>
-      <c r="AD50" s="91"/>
-      <c r="AE50" s="91"/>
-      <c r="AF50" s="91"/>
-      <c r="AG50" s="91"/>
-      <c r="AH50" s="91"/>
-      <c r="AI50" s="91"/>
-      <c r="AJ50" s="91"/>
-      <c r="AK50" s="91"/>
-      <c r="AL50" s="90"/>
-      <c r="AM50" s="90"/>
-      <c r="AN50" s="94"/>
-      <c r="AO50" s="126"/>
-      <c r="AP50" s="127"/>
-      <c r="AQ50" s="127"/>
-      <c r="AR50" s="127"/>
-      <c r="AS50" s="127"/>
-      <c r="AT50" s="127"/>
-      <c r="AU50" s="128"/>
-      <c r="AV50" s="127"/>
+      <c r="AD50" s="88"/>
+      <c r="AE50" s="88"/>
+      <c r="AF50" s="88"/>
+      <c r="AG50" s="88"/>
+      <c r="AH50" s="88"/>
+      <c r="AI50" s="88"/>
+      <c r="AJ50" s="88"/>
+      <c r="AK50" s="88"/>
+      <c r="AL50" s="87"/>
+      <c r="AM50" s="87"/>
+      <c r="AN50" s="48"/>
+      <c r="AO50" s="117"/>
+      <c r="AP50" s="117"/>
+      <c r="AQ50" s="117"/>
+      <c r="AR50" s="117"/>
+      <c r="AS50" s="117"/>
+      <c r="AT50" s="117"/>
+      <c r="AU50" s="117"/>
+      <c r="AV50" s="117"/>
       <c r="AW50" s="48"/>
       <c r="AX50" s="48"/>
-      <c r="AY50" s="95"/>
+      <c r="AY50" s="48"/>
     </row>
     <row r="51" spans="1:51" ht="12.75">
       <c r="A51" s="35"/>
@@ -4578,30 +5089,28 @@
         <v>1</v>
       </c>
       <c r="AC51" s="48"/>
-      <c r="AD51" s="87"/>
-      <c r="AE51" s="87"/>
-      <c r="AF51" s="87"/>
-      <c r="AG51" s="87"/>
-      <c r="AH51" s="87"/>
+      <c r="AD51" s="84"/>
+      <c r="AE51" s="84"/>
+      <c r="AF51" s="84"/>
+      <c r="AG51" s="84"/>
+      <c r="AH51" s="84"/>
       <c r="AI51" s="48"/>
       <c r="AJ51" s="48"/>
-      <c r="AK51" s="87"/>
-      <c r="AL51" s="90"/>
+      <c r="AK51" s="84"/>
+      <c r="AL51" s="87"/>
       <c r="AM51" s="48"/>
-      <c r="AN51" s="94" t="s">
-        <v>31</v>
-      </c>
-      <c r="AO51" s="94"/>
+      <c r="AN51" s="48"/>
+      <c r="AO51" s="48"/>
       <c r="AP51" s="48"/>
       <c r="AQ51" s="48"/>
       <c r="AR51" s="48"/>
       <c r="AS51" s="48"/>
       <c r="AT51" s="48"/>
-      <c r="AU51" s="95"/>
+      <c r="AU51" s="48"/>
       <c r="AV51" s="48"/>
       <c r="AW51" s="48"/>
       <c r="AX51" s="48"/>
-      <c r="AY51" s="95"/>
+      <c r="AY51" s="48"/>
     </row>
     <row r="52" spans="1:51" ht="12.75">
       <c r="A52" s="31" t="s">
@@ -4638,7 +5147,7 @@
       <c r="X52" s="63"/>
       <c r="Y52" s="63"/>
       <c r="Z52" s="67"/>
-      <c r="AC52" s="91"/>
+      <c r="AC52" s="88"/>
       <c r="AD52" s="48"/>
       <c r="AE52" s="48"/>
       <c r="AF52" s="48"/>
@@ -4647,20 +5156,20 @@
       <c r="AI52" s="48"/>
       <c r="AJ52" s="48"/>
       <c r="AK52" s="48"/>
-      <c r="AL52" s="91"/>
-      <c r="AM52" s="91"/>
-      <c r="AN52" s="126"/>
-      <c r="AO52" s="94"/>
+      <c r="AL52" s="88"/>
+      <c r="AM52" s="88"/>
+      <c r="AN52" s="117"/>
+      <c r="AO52" s="48"/>
       <c r="AP52" s="48"/>
       <c r="AQ52" s="48"/>
       <c r="AR52" s="48"/>
       <c r="AS52" s="48"/>
       <c r="AT52" s="48"/>
-      <c r="AU52" s="95"/>
+      <c r="AU52" s="48"/>
       <c r="AV52" s="48"/>
-      <c r="AW52" s="127"/>
-      <c r="AX52" s="127"/>
-      <c r="AY52" s="128"/>
+      <c r="AW52" s="117"/>
+      <c r="AX52" s="117"/>
+      <c r="AY52" s="117"/>
     </row>
     <row r="53" spans="1:51" ht="12" customHeight="1">
       <c r="A53" s="31" t="s">
@@ -4712,30 +5221,28 @@
         <v>1</v>
       </c>
       <c r="AC53" s="48"/>
-      <c r="AD53" s="87"/>
-      <c r="AE53" s="87"/>
-      <c r="AF53" s="87"/>
-      <c r="AG53" s="87"/>
-      <c r="AH53" s="87"/>
-      <c r="AI53" s="87"/>
+      <c r="AD53" s="84"/>
+      <c r="AE53" s="84"/>
+      <c r="AF53" s="84"/>
+      <c r="AG53" s="84"/>
+      <c r="AH53" s="84"/>
+      <c r="AI53" s="84"/>
       <c r="AJ53" s="48"/>
       <c r="AK53" s="48"/>
-      <c r="AL53" s="90"/>
-      <c r="AM53" s="90"/>
-      <c r="AN53" s="94" t="s">
-        <v>31</v>
-      </c>
-      <c r="AO53" s="94"/>
+      <c r="AL53" s="87"/>
+      <c r="AM53" s="87"/>
+      <c r="AN53" s="48"/>
+      <c r="AO53" s="48"/>
       <c r="AP53" s="48"/>
       <c r="AQ53" s="48"/>
       <c r="AR53" s="48"/>
       <c r="AS53" s="48"/>
       <c r="AT53" s="48"/>
-      <c r="AU53" s="95"/>
+      <c r="AU53" s="48"/>
       <c r="AV53" s="48"/>
       <c r="AW53" s="48"/>
       <c r="AX53" s="48"/>
-      <c r="AY53" s="95"/>
+      <c r="AY53" s="48"/>
     </row>
     <row r="54" spans="1:51" ht="12.75">
       <c r="A54" s="31" t="s">
@@ -4785,20 +5292,20 @@
       <c r="AI54" s="48"/>
       <c r="AJ54" s="48"/>
       <c r="AK54" s="48"/>
-      <c r="AL54" s="90"/>
-      <c r="AM54" s="90"/>
-      <c r="AN54" s="94"/>
-      <c r="AO54" s="94"/>
+      <c r="AL54" s="87"/>
+      <c r="AM54" s="87"/>
+      <c r="AN54" s="48"/>
+      <c r="AO54" s="48"/>
       <c r="AP54" s="48"/>
       <c r="AQ54" s="48"/>
       <c r="AR54" s="48"/>
       <c r="AS54" s="48"/>
       <c r="AT54" s="48"/>
-      <c r="AU54" s="95"/>
+      <c r="AU54" s="48"/>
       <c r="AV54" s="48"/>
       <c r="AW54" s="48"/>
       <c r="AX54" s="48"/>
-      <c r="AY54" s="95"/>
+      <c r="AY54" s="48"/>
     </row>
     <row r="55" spans="1:51" ht="12.75">
       <c r="A55" s="31" t="s">
@@ -4859,31 +5366,29 @@
       <c r="X55" s="68"/>
       <c r="Y55" s="68"/>
       <c r="Z55" s="70"/>
-      <c r="AC55" s="87"/>
-      <c r="AD55" s="103"/>
-      <c r="AE55" s="103"/>
-      <c r="AF55" s="103"/>
-      <c r="AG55" s="103"/>
-      <c r="AH55" s="103"/>
-      <c r="AI55" s="103"/>
-      <c r="AJ55" s="103"/>
-      <c r="AK55" s="103"/>
-      <c r="AL55" s="87"/>
-      <c r="AM55" s="87"/>
-      <c r="AN55" s="106" t="s">
-        <v>31</v>
-      </c>
-      <c r="AO55" s="126"/>
-      <c r="AP55" s="127"/>
-      <c r="AQ55" s="127"/>
-      <c r="AR55" s="127"/>
-      <c r="AS55" s="127"/>
-      <c r="AT55" s="127"/>
-      <c r="AU55" s="128"/>
-      <c r="AV55" s="127"/>
+      <c r="AC55" s="84"/>
+      <c r="AD55" s="99"/>
+      <c r="AE55" s="99"/>
+      <c r="AF55" s="99"/>
+      <c r="AG55" s="99"/>
+      <c r="AH55" s="99"/>
+      <c r="AI55" s="99"/>
+      <c r="AJ55" s="99"/>
+      <c r="AK55" s="99"/>
+      <c r="AL55" s="84"/>
+      <c r="AM55" s="84"/>
+      <c r="AN55" s="48"/>
+      <c r="AO55" s="117"/>
+      <c r="AP55" s="117"/>
+      <c r="AQ55" s="117"/>
+      <c r="AR55" s="117"/>
+      <c r="AS55" s="117"/>
+      <c r="AT55" s="117"/>
+      <c r="AU55" s="117"/>
+      <c r="AV55" s="117"/>
       <c r="AW55" s="48"/>
       <c r="AX55" s="48"/>
-      <c r="AY55" s="95"/>
+      <c r="AY55" s="48"/>
     </row>
     <row r="56" spans="1:51" ht="12.75">
       <c r="A56" s="31" t="s">
@@ -4937,20 +5442,20 @@
       <c r="AI56" s="48"/>
       <c r="AJ56" s="48"/>
       <c r="AK56" s="48"/>
-      <c r="AL56" s="90"/>
-      <c r="AM56" s="90"/>
-      <c r="AN56" s="94"/>
-      <c r="AO56" s="96"/>
-      <c r="AP56" s="97"/>
-      <c r="AQ56" s="97"/>
-      <c r="AR56" s="97"/>
-      <c r="AS56" s="97"/>
-      <c r="AT56" s="97"/>
-      <c r="AU56" s="98"/>
-      <c r="AV56" s="97"/>
+      <c r="AL56" s="87"/>
+      <c r="AM56" s="87"/>
+      <c r="AN56" s="48"/>
+      <c r="AO56" s="48"/>
+      <c r="AP56" s="48"/>
+      <c r="AQ56" s="48"/>
+      <c r="AR56" s="48"/>
+      <c r="AS56" s="48"/>
+      <c r="AT56" s="48"/>
+      <c r="AU56" s="48"/>
+      <c r="AV56" s="48"/>
       <c r="AW56" s="48"/>
       <c r="AX56" s="48"/>
-      <c r="AY56" s="95"/>
+      <c r="AY56" s="48"/>
     </row>
     <row r="57" spans="1:51" ht="27.75" customHeight="1">
       <c r="A57" s="31" t="s">
@@ -5001,7 +5506,7 @@
       <c r="X57" s="58"/>
       <c r="Y57" s="58"/>
       <c r="Z57" s="59"/>
-      <c r="AC57" s="104"/>
+      <c r="AC57" s="100"/>
       <c r="AD57" s="48"/>
       <c r="AE57" s="48"/>
       <c r="AF57" s="48"/>
@@ -5012,22 +5517,6 @@
       <c r="AK57" s="48"/>
       <c r="AL57" s="46"/>
       <c r="AM57" s="46"/>
-      <c r="AN57" s="101" t="s">
-        <v>10</v>
-      </c>
-      <c r="AO57" s="102">
-        <v>21</v>
-      </c>
-      <c r="AP57" s="102"/>
-      <c r="AQ57" s="102"/>
-      <c r="AR57" s="102"/>
-      <c r="AS57" s="102"/>
-      <c r="AT57" s="102"/>
-      <c r="AU57" s="102"/>
-      <c r="AV57" s="102"/>
-      <c r="AW57" s="102"/>
-      <c r="AX57" s="102"/>
-      <c r="AY57" s="107"/>
     </row>
     <row r="58" spans="1:51" ht="12.75">
       <c r="A58" s="31" t="s">
